--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -14743,22 +14743,22 @@
         <v>0</v>
       </c>
       <c r="BF70" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG70" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH70" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI70" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ70" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK70" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK71"/>
+  <dimension ref="A1:BK74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.29</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>1.5</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU22" t="n">
         <v>1.57</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT27" t="n">
         <v>3</v>
@@ -6587,7 +6587,7 @@
         <v>1.29</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU30" t="n">
         <v>1.52</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT31" t="n">
         <v>0.5</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU33" t="n">
         <v>1.53</v>
@@ -7805,7 +7805,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU36" t="n">
         <v>1.49</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1.4</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT44" t="n">
         <v>2.6</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU45" t="n">
         <v>1.86</v>
@@ -10038,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU47" t="n">
         <v>2.16</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT56" t="n">
         <v>1.4</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" t="n">
         <v>0.5</v>
@@ -12474,7 +12474,7 @@
         <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU59" t="n">
         <v>1.46</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13083,7 +13083,7 @@
         <v>1.29</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU62" t="n">
         <v>1.48</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU64" t="n">
         <v>1.95</v>
@@ -14962,6 +14962,615 @@
       </c>
       <c r="BK71" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5280753</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45038.70833333334</v>
+      </c>
+      <c r="F72" t="n">
+        <v>11</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>UCV</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Estudiantes Mérida</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['20', '45+2', '57']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['50', '74']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>8</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5280751</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45038.80208333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>11</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Mineros de Guayana</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7</v>
+      </c>
+      <c r="S73" t="n">
+        <v>8</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5280750</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45038.89583333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>11</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Hermanos Colmenares</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['32', '43']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>6</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>7</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK74"/>
+  <dimension ref="A1:BK77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
         <v>0.6</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.33</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT12" t="n">
         <v>0.6</v>
@@ -3136,7 +3136,7 @@
         <v>0.75</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU17" t="n">
         <v>1.33</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT19" t="n">
         <v>0.86</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT24" t="n">
         <v>1.4</v>
@@ -5978,7 +5978,7 @@
         <v>0.8</v>
       </c>
       <c r="AT27" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU27" t="n">
         <v>1.41</v>
@@ -6384,7 +6384,7 @@
         <v>1.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU29" t="n">
         <v>1.88</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU32" t="n">
         <v>2.74</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT34" t="n">
         <v>0.2</v>
@@ -7599,7 +7599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>0.86</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT36" t="n">
         <v>1.4</v>
@@ -9226,7 +9226,7 @@
         <v>1.4</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU43" t="n">
         <v>1.98</v>
@@ -9429,7 +9429,7 @@
         <v>0.8</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT47" t="n">
         <v>1.33</v>
@@ -10238,7 +10238,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
         <v>0.5</v>
@@ -10647,7 +10647,7 @@
         <v>1.29</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU50" t="n">
         <v>1.47</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.91</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -13283,10 +13283,10 @@
         <v>3</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.52</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT64" t="n">
         <v>1.8</v>
@@ -13692,7 +13692,7 @@
         <v>0.75</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU65" t="n">
         <v>1.4</v>
@@ -15571,6 +15571,615 @@
       </c>
       <c r="BK74" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5280754</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45039.70833333334</v>
+      </c>
+      <c r="F75" t="n">
+        <v>11</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Deportivo Táchira</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>7</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>8</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5280752</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45039.80208333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Angostura</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['54', '57', '84']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['19', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>8</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5280755</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45039.89583333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>11</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Academia Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['41', '68', '70']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['19', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>7</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK77"/>
+  <dimension ref="A1:BK79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT8" t="n">
         <v>0.86</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2.17</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>1.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU26" t="n">
         <v>1.6</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT32" t="n">
         <v>0.6</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.99</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU40" t="n">
         <v>1.42</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT52" t="n">
         <v>0.86</v>
@@ -11459,7 +11459,7 @@
         <v>1.2</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.68</v>
@@ -11659,7 +11659,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT59" t="n">
         <v>1.4</v>
@@ -14095,7 +14095,7 @@
         <v>0.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT67" t="n">
         <v>0.2</v>
@@ -14707,7 +14707,7 @@
         <v>1.29</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.49</v>
@@ -16180,6 +16180,412 @@
       </c>
       <c r="BK77" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5280757</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45044.81944444445</v>
+      </c>
+      <c r="F78" t="n">
+        <v>12</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Mineros de Guayana</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['14', '86', '90+2']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>9</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>12</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>5</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5280758</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45044.90625</v>
+      </c>
+      <c r="F79" t="n">
+        <v>12</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Academia Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Deportivo Táchira</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>7</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK79"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.8</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>1.29</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.44</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU23" t="n">
         <v>1.63</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
         <v>1.4</v>
@@ -7399,7 +7399,7 @@
         <v>2.17</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU34" t="n">
         <v>1.64</v>
@@ -8008,7 +8008,7 @@
         <v>1.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU37" t="n">
         <v>1.5</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>2.17</v>
@@ -10850,7 +10850,7 @@
         <v>0.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.52</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>2.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU55" t="n">
         <v>2.34</v>
@@ -12880,7 +12880,7 @@
         <v>0.8</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU61" t="n">
         <v>1.24</v>
@@ -14098,7 +14098,7 @@
         <v>2.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU67" t="n">
         <v>2.46</v>
@@ -14501,7 +14501,7 @@
         <v>0.83</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT69" t="n">
         <v>0.86</v>
@@ -16586,6 +16586,412 @@
       </c>
       <c r="BK79" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5280756</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45045.70833333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>12</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Hermanos Colmenares</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>8</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>11</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5280762</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45045.80208333334</v>
+      </c>
+      <c r="F81" t="n">
+        <v>12</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['12', '36', '90+3']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['24', '68']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V81" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1.4</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
         <v>0.33</v>
@@ -1715,7 +1715,7 @@
         <v>2.17</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.2</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT13" t="n">
         <v>2.17</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
         <v>0.86</v>
@@ -3745,7 +3745,7 @@
         <v>2.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU16" t="n">
         <v>2.63</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
         <v>0.33</v>
@@ -4760,7 +4760,7 @@
         <v>0.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT22" t="n">
         <v>1.33</v>
@@ -5369,7 +5369,7 @@
         <v>2.17</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.52</v>
@@ -6790,7 +6790,7 @@
         <v>0.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU31" t="n">
         <v>1.02</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT38" t="n">
         <v>0.86</v>
@@ -8411,7 +8411,7 @@
         <v>0.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT39" t="n">
         <v>0.5</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU42" t="n">
         <v>1.66</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU48" t="n">
         <v>1.3</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
         <v>0.6</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT51" t="n">
         <v>0.33</v>
@@ -11865,7 +11865,7 @@
         <v>0.8</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU56" t="n">
         <v>1.1</v>
@@ -12065,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT57" t="n">
         <v>2.33</v>
@@ -12271,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU58" t="n">
         <v>1.81</v>
@@ -13080,7 +13080,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
         <v>1.33</v>
@@ -13489,7 +13489,7 @@
         <v>2.17</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.95</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT65" t="n">
         <v>0.6</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU68" t="n">
         <v>1.6</v>
@@ -14704,7 +14704,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT70" t="n">
         <v>0.5</v>
@@ -14910,7 +14910,7 @@
         <v>1.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU71" t="n">
         <v>1.68</v>
@@ -14969,7 +14969,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>5280753</v>
+        <v>5280749</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -14982,147 +14982,147 @@
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45038.70833333334</v>
+        <v>45037.75</v>
       </c>
       <c r="F72" t="n">
         <v>11</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>UCV</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Estudiantes Mérida</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['20', '45+2', '57']</t>
+          <t>['64']</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>['50', '74']</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>8</v>
       </c>
-      <c r="S72" t="n">
-        <v>10</v>
-      </c>
       <c r="T72" t="n">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="U72" t="n">
         <v>2.05</v>
       </c>
       <c r="V72" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W72" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X72" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="Y72" t="n">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AA72" t="n">
-        <v>6.75</v>
+        <v>7.6</v>
       </c>
       <c r="AB72" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC72" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="AD72" t="n">
         <v>3</v>
       </c>
       <c r="AE72" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AF72" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AG72" t="n">
         <v>8</v>
       </c>
       <c r="AH72" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AI72" t="n">
-        <v>3.24</v>
+        <v>3.04</v>
       </c>
       <c r="AJ72" t="n">
         <v>1.95</v>
       </c>
       <c r="AK72" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AL72" t="n">
         <v>1.75</v>
       </c>
       <c r="AM72" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AN72" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AO72" t="n">
         <v>1.32</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV72" t="n">
         <v>1.33</v>
       </c>
-      <c r="AU72" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AW72" t="n">
-        <v>2.43</v>
+        <v>3.17</v>
       </c>
       <c r="AX72" t="n">
         <v>0</v>
@@ -15149,22 +15149,22 @@
         <v>0</v>
       </c>
       <c r="BF72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI72" t="n">
         <v>5</v>
       </c>
-      <c r="BG72" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI72" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ72" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="BK72" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -15172,7 +15172,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>5280751</v>
+        <v>5280753</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -15185,81 +15185,81 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45038.80208333334</v>
+        <v>45038.70833333334</v>
       </c>
       <c r="F73" t="n">
         <v>11</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Mineros de Guayana</t>
+          <t>UCV</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Estudiantes Mérida</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '45+2', '57']</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>['50', '74']</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S73" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T73" t="n">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V73" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="W73" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X73" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AA73" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AB73" t="n">
         <v>1.08</v>
@@ -15283,7 +15283,7 @@
         <v>1.33</v>
       </c>
       <c r="AI73" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="AJ73" t="n">
         <v>1.95</v>
@@ -15292,40 +15292,40 @@
         <v>1.73</v>
       </c>
       <c r="AL73" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AM73" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AN73" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AO73" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AR73" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AS73" t="n">
         <v>0.8</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU73" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AV73" t="n">
-        <v>1.79</v>
+        <v>1.17</v>
       </c>
       <c r="AW73" t="n">
-        <v>2.99</v>
+        <v>2.43</v>
       </c>
       <c r="AX73" t="n">
         <v>0</v>
@@ -15352,22 +15352,22 @@
         <v>0</v>
       </c>
       <c r="BF73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG73" t="n">
         <v>4</v>
       </c>
       <c r="BH73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ73" t="n">
         <v>7</v>
       </c>
-      <c r="BI73" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ73" t="n">
-        <v>9</v>
-      </c>
       <c r="BK73" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -15375,7 +15375,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>5280750</v>
+        <v>5280751</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -15388,38 +15388,38 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45038.89583333334</v>
+        <v>45038.80208333334</v>
       </c>
       <c r="F74" t="n">
         <v>11</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hermanos Colmenares</t>
+          <t>Mineros de Guayana</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Portuguesa</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -15428,65 +15428,65 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>['32', '43']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S74" t="n">
+        <v>8</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA74" t="n">
         <v>7</v>
       </c>
-      <c r="T74" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U74" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V74" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W74" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X74" t="n">
+      <c r="AB74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE74" t="n">
         <v>2.4</v>
       </c>
-      <c r="Y74" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>2.87</v>
-      </c>
       <c r="AF74" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AG74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AI74" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="AJ74" t="n">
         <v>1.95</v>
@@ -15495,40 +15495,40 @@
         <v>1.73</v>
       </c>
       <c r="AL74" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AM74" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AN74" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AU74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV74" t="n">
         <v>1.79</v>
       </c>
-      <c r="AV74" t="n">
-        <v>1.12</v>
-      </c>
       <c r="AW74" t="n">
-        <v>2.91</v>
+        <v>2.99</v>
       </c>
       <c r="AX74" t="n">
         <v>0</v>
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="BB74" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BC74" t="n">
         <v>0</v>
@@ -15555,22 +15555,22 @@
         <v>0</v>
       </c>
       <c r="BF74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH74" t="n">
         <v>7</v>
       </c>
       <c r="BI74" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BJ74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK74" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -15578,7 +15578,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>5280754</v>
+        <v>5280750</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -15591,189 +15591,189 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45039.70833333334</v>
+        <v>45038.89583333334</v>
       </c>
       <c r="F75" t="n">
         <v>11</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Deportivo Táchira</t>
+          <t>Hermanos Colmenares</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
         <v>2</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['88']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>['47']</t>
+          <t>['32', '43']</t>
         </is>
       </c>
       <c r="Q75" t="n">
+        <v>6</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
         <v>7</v>
       </c>
-      <c r="R75" t="n">
-        <v>1</v>
-      </c>
-      <c r="S75" t="n">
-        <v>8</v>
-      </c>
       <c r="T75" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V75" t="n">
         <v>3.6</v>
       </c>
       <c r="W75" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="X75" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="Y75" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AA75" t="n">
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB75" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AC75" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AD75" t="n">
         <v>3.1</v>
       </c>
       <c r="AE75" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI75" t="n">
         <v>2.7</v>
       </c>
-      <c r="AF75" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AJ75" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="AK75" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AL75" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM75" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>1.95</v>
       </c>
       <c r="AN75" t="n">
         <v>1.35</v>
       </c>
       <c r="AO75" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AR75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
         <v>3</v>
       </c>
-      <c r="AS75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF75" t="n">
+      <c r="BG75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI75" t="n">
         <v>4</v>
       </c>
-      <c r="BG75" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI75" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ75" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BK75" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -15781,7 +15781,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>5280752</v>
+        <v>5280754</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -15794,147 +15794,147 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45039.80208333334</v>
+        <v>45039.70833333334</v>
       </c>
       <c r="F76" t="n">
         <v>11</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Angostura</t>
+          <t>Deportivo Táchira</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['54', '57', '84']</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>['19', '90+5']</t>
+          <t>['47']</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S76" t="n">
         <v>8</v>
       </c>
       <c r="T76" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="U76" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="W76" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="X76" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="Y76" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AA76" t="n">
         <v>6.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC76" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="AD76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI76" t="n">
         <v>3.2</v>
       </c>
-      <c r="AE76" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AJ76" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="AK76" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AL76" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AM76" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AN76" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AO76" t="n">
         <v>1.3</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="AR76" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.6</v>
+        <v>2.33</v>
       </c>
       <c r="AU76" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="AV76" t="n">
-        <v>1.23</v>
+        <v>1.83</v>
       </c>
       <c r="AW76" t="n">
-        <v>2.74</v>
+        <v>3.26</v>
       </c>
       <c r="AX76" t="n">
         <v>0</v>
@@ -15952,7 +15952,7 @@
         <v>0</v>
       </c>
       <c r="BC76" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BD76" t="n">
         <v>0</v>
@@ -15961,22 +15961,22 @@
         <v>0</v>
       </c>
       <c r="BF76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH76" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BI76" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ76" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="BK76" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -15984,7 +15984,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>5280755</v>
+        <v>5280752</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -15997,29 +15997,29 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45039.89583333334</v>
+        <v>45039.80208333334</v>
       </c>
       <c r="F77" t="n">
         <v>11</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Angostura</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Academia Puerto Cabello</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>3</v>
@@ -16032,112 +16032,112 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['41', '68', '70']</t>
+          <t>['54', '57', '84']</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>['19', '90+4']</t>
+          <t>['19', '90+5']</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T77" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI77" t="n">
         <v>3.4</v>
       </c>
-      <c r="U77" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V77" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="W77" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X77" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>3.48</v>
-      </c>
       <c r="AJ77" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="AK77" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AL77" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AM77" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AN77" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AO77" t="n">
         <v>1.3</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AR77" t="n">
-        <v>2.6</v>
+        <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.17</v>
+        <v>1.6</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.17</v>
+        <v>0.6</v>
       </c>
       <c r="AU77" t="n">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="AV77" t="n">
-        <v>1.61</v>
+        <v>1.23</v>
       </c>
       <c r="AW77" t="n">
-        <v>3.36</v>
+        <v>2.74</v>
       </c>
       <c r="AX77" t="n">
         <v>0</v>
@@ -16155,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="BC77" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BD77" t="n">
         <v>0</v>
@@ -16164,22 +16164,22 @@
         <v>0</v>
       </c>
       <c r="BF77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH77" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BI77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ77" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BK77" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -16187,7 +16187,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>5280757</v>
+        <v>5280755</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -16200,147 +16200,147 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45044.81944444445</v>
+        <v>45039.89583333334</v>
       </c>
       <c r="F78" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Mineros de Guayana</t>
+          <t>Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78" t="n">
         <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>['14', '86', '90+2']</t>
+          <t>['41', '68', '70']</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19', '90+4']</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S78" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T78" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="U78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM78" t="n">
         <v>2.1</v>
       </c>
-      <c r="V78" t="n">
-        <v>5</v>
-      </c>
-      <c r="W78" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X78" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>1.9</v>
-      </c>
       <c r="AN78" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AO78" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78" t="n">
         <v>2</v>
       </c>
       <c r="AR78" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="AS78" t="n">
         <v>2.17</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.5</v>
+        <v>2.17</v>
       </c>
       <c r="AU78" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AV78" t="n">
-        <v>1.19</v>
+        <v>1.61</v>
       </c>
       <c r="AW78" t="n">
-        <v>2.62</v>
+        <v>3.36</v>
       </c>
       <c r="AX78" t="n">
         <v>0</v>
@@ -16361,28 +16361,28 @@
         <v>0</v>
       </c>
       <c r="BD78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE78" t="n">
         <v>0</v>
       </c>
       <c r="BF78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG78" t="n">
         <v>3</v>
       </c>
       <c r="BH78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BJ78" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK78" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -16390,7 +16390,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>5280758</v>
+        <v>5280757</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -16403,111 +16403,111 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45044.90625</v>
+        <v>45044.81944444445</v>
       </c>
       <c r="F79" t="n">
         <v>12</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Academia Puerto Cabello</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Deportivo Táchira</t>
+          <t>Mineros de Guayana</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
+          <t>['14', '86', '90+2']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S79" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T79" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U79" t="n">
         <v>2.1</v>
       </c>
       <c r="V79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W79" t="n">
         <v>1.43</v>
       </c>
       <c r="X79" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="Y79" t="n">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AA79" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AB79" t="n">
         <v>1.06</v>
       </c>
       <c r="AC79" t="n">
-        <v>1.97</v>
+        <v>1.66</v>
       </c>
       <c r="AD79" t="n">
-        <v>3.12</v>
+        <v>3.32</v>
       </c>
       <c r="AE79" t="n">
-        <v>3.21</v>
+        <v>4.6</v>
       </c>
       <c r="AF79" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AG79" t="n">
-        <v>9.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AI79" t="n">
-        <v>3.13</v>
+        <v>3.38</v>
       </c>
       <c r="AJ79" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AK79" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AL79" t="n">
         <v>1.8</v>
@@ -16516,76 +16516,76 @@
         <v>1.9</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AO79" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG79" t="n">
         <v>3</v>
       </c>
-      <c r="AR79" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>-1</v>
-      </c>
       <c r="BH79" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI79" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ79" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK79" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
@@ -16593,7 +16593,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>5280756</v>
+        <v>5280758</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -16606,147 +16606,147 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45045.70833333334</v>
+        <v>45044.90625</v>
       </c>
       <c r="F80" t="n">
         <v>12</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hermanos Colmenares</t>
+          <t>Deportivo Táchira</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['22']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>['45']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>7</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>4</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA80" t="n">
         <v>8</v>
       </c>
-      <c r="R80" t="n">
-        <v>3</v>
-      </c>
-      <c r="S80" t="n">
-        <v>11</v>
-      </c>
-      <c r="T80" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U80" t="n">
-        <v>2</v>
-      </c>
-      <c r="V80" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X80" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AB80" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC80" t="n">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="AD80" t="n">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="AE80" t="n">
-        <v>2.67</v>
+        <v>3.21</v>
       </c>
       <c r="AF80" t="n">
         <v>1.06</v>
       </c>
       <c r="AG80" t="n">
-        <v>7.75</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AH80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN80" t="n">
         <v>1.3</v>
       </c>
-      <c r="AI80" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AO80" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR80" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1</v>
+        <v>2.67</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.33</v>
+        <v>1.4</v>
       </c>
       <c r="AU80" t="n">
-        <v>1.84</v>
+        <v>2.33</v>
       </c>
       <c r="AV80" t="n">
-        <v>1.21</v>
+        <v>1.68</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.05</v>
+        <v>4.01</v>
       </c>
       <c r="AX80" t="n">
         <v>0</v>
@@ -16773,22 +16773,22 @@
         <v>0</v>
       </c>
       <c r="BF80" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG80" t="n">
         <v>4</v>
       </c>
       <c r="BH80" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BI80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ80" t="n">
         <v>16</v>
       </c>
       <c r="BK80" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -16796,7 +16796,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>5280762</v>
+        <v>5280756</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -16809,189 +16809,1001 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45045.80208333334</v>
+        <v>45045.70833333334</v>
       </c>
       <c r="F81" t="n">
         <v>12</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Hermanos Colmenares</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['12', '36', '90+3']</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>['24', '68']</t>
+          <t>['45']</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R81" t="n">
         <v>3</v>
       </c>
       <c r="S81" t="n">
+        <v>11</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
         <v>4</v>
       </c>
-      <c r="T81" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V81" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W81" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X81" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AT81" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AU81" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AW81" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AX81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC81" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BD81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF81" t="n">
-        <v>11</v>
-      </c>
       <c r="BG81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH81" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BI81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ81" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BK81" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5280762</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45045.80208333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['12', '36', '90+3']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['24', '68']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V82" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5280760</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>12</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Estudiantes Mérida</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>9</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>14</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5280761</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45046.70833333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>12</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Angostura</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['7', '10', '66', '73']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5280759</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45046.80208333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>12</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>UCV</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -17462,13 +17462,13 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R84" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S84" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T84" t="n">
         <v>2.5</v>
@@ -17585,22 +17585,22 @@
         <v>0</v>
       </c>
       <c r="BF84" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG84" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH84" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI84" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ84" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK84" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -17665,13 +17665,13 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R85" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S85" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T85" t="n">
         <v>2.4</v>
@@ -17788,22 +17788,22 @@
         <v>0</v>
       </c>
       <c r="BF85" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG85" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH85" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI85" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ85" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK85" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK85"/>
+  <dimension ref="A1:BK87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT10" t="n">
         <v>0.83</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1.17</v>
@@ -3542,7 +3542,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>2.17</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU25" t="n">
         <v>1.24</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT27" t="n">
         <v>2.33</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
         <v>2.17</v>
@@ -7805,7 +7805,7 @@
         <v>1.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.49</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
         <v>0.83</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU45" t="n">
         <v>1.86</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU46" t="n">
         <v>1.56</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>1.4</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT56" t="n">
         <v>1.17</v>
@@ -12474,7 +12474,7 @@
         <v>2.17</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU59" t="n">
         <v>1.46</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU60" t="n">
         <v>1.31</v>
@@ -14907,7 +14907,7 @@
         <v>0.6</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT71" t="n">
         <v>0.43</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU72" t="n">
         <v>1.84</v>
@@ -15313,7 +15313,7 @@
         <v>1.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT73" t="n">
         <v>1.33</v>
@@ -15519,7 +15519,7 @@
         <v>0.8</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU74" t="n">
         <v>1.2</v>
@@ -17804,6 +17804,412 @@
       </c>
       <c r="BK85" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5280768</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45051.75</v>
+      </c>
+      <c r="F86" t="n">
+        <v>13</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>UCV</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>6</v>
+      </c>
+      <c r="T86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5280765</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45051.84375</v>
+      </c>
+      <c r="F87" t="n">
+        <v>13</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['17', '51']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>10</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V87" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK87"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>2.67</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>0.91</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT17" t="n">
         <v>0.6</v>
@@ -4354,7 +4354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU19" t="n">
         <v>1.25</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT21" t="n">
         <v>2</v>
@@ -5775,7 +5775,7 @@
         <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU26" t="n">
         <v>1.6</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT31" t="n">
         <v>0.43</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT33" t="n">
         <v>1.33</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU35" t="n">
         <v>1.3</v>
@@ -8211,7 +8211,7 @@
         <v>0.6</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU38" t="n">
         <v>1.4</v>
@@ -8617,7 +8617,7 @@
         <v>2.17</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.42</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT44" t="n">
         <v>2.17</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT46" t="n">
         <v>0.83</v>
@@ -11053,7 +11053,7 @@
         <v>2.17</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU54" t="n">
         <v>1.68</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT61" t="n">
         <v>0.83</v>
@@ -14298,7 +14298,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT68" t="n">
         <v>1.17</v>
@@ -14504,7 +14504,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU69" t="n">
         <v>1.83</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT74" t="n">
         <v>1.33</v>
@@ -16737,7 +16737,7 @@
         <v>2.67</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU80" t="n">
         <v>2.33</v>
@@ -18210,6 +18210,412 @@
       </c>
       <c r="BK87" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5280764</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45052.75</v>
+      </c>
+      <c r="F88" t="n">
+        <v>13</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>4</v>
+      </c>
+      <c r="L88" t="n">
+        <v>5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="n">
+        <v>8</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['24', '40', '45+4', '57', '84']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['20', '49', '77']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>8</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V88" t="n">
+        <v>6</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5280766</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45052.84375</v>
+      </c>
+      <c r="F89" t="n">
+        <v>13</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Mineros de Guayana</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Deportivo Táchira</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['5', '18', '35', '45']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>9</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>12</v>
+      </c>
+      <c r="T89" t="n">
+        <v>4</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT8" t="n">
         <v>0.75</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT12" t="n">
         <v>0.5</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT16" t="n">
         <v>0.43</v>
@@ -3948,7 +3948,7 @@
         <v>2.17</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>1.33</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT19" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>1.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU22" t="n">
         <v>1.57</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT24" t="n">
         <v>1.17</v>
@@ -5978,7 +5978,7 @@
         <v>0.83</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU27" t="n">
         <v>1.41</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>2.74</v>
@@ -7196,7 +7196,7 @@
         <v>2.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU33" t="n">
         <v>1.53</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT34" t="n">
         <v>0.33</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU47" t="n">
         <v>2.16</v>
@@ -10647,7 +10647,7 @@
         <v>1.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.47</v>
@@ -11659,7 +11659,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT55" t="n">
         <v>0.83</v>
@@ -12068,7 +12068,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU57" t="n">
         <v>1.91</v>
@@ -13083,7 +13083,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU62" t="n">
         <v>1.48</v>
@@ -13283,7 +13283,7 @@
         <v>3</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT63" t="n">
         <v>2.17</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT64" t="n">
         <v>2</v>
@@ -13692,7 +13692,7 @@
         <v>0.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.4</v>
@@ -14095,7 +14095,7 @@
         <v>0.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT67" t="n">
         <v>0.33</v>
@@ -15316,7 +15316,7 @@
         <v>0.83</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU73" t="n">
         <v>1.26</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16125,10 +16125,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.51</v>
@@ -16328,7 +16328,7 @@
         <v>2.6</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT78" t="n">
         <v>2.17</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT80" t="n">
         <v>1.67</v>
@@ -17991,22 +17991,22 @@
         <v>0</v>
       </c>
       <c r="BF86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BI86" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BK86" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -18616,6 +18616,615 @@
       </c>
       <c r="BK89" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5280767</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45053.70833333334</v>
+      </c>
+      <c r="F90" t="n">
+        <v>13</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Angostura</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Estudiantes Mérida</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['46', '87']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['36', '52', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>8</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5280769</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45053.80208333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>13</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['27', '68']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>13</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>14</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5280763</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45053.89583333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>13</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Academia Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['3', '37']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>10</v>
+      </c>
+      <c r="S92" t="n">
+        <v>12</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT6" t="n">
         <v>0.43</v>
@@ -3136,7 +3136,7 @@
         <v>0.6</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT15" t="n">
         <v>0.83</v>
@@ -4557,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU20" t="n">
         <v>1.44</v>
@@ -4760,7 +4760,7 @@
         <v>0.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT22" t="n">
         <v>1.57</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT25" t="n">
         <v>0.83</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT26" t="n">
         <v>1.67</v>
@@ -6384,7 +6384,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU29" t="n">
         <v>1.88</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU30" t="n">
         <v>1.52</v>
@@ -7399,7 +7399,7 @@
         <v>1.86</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU34" t="n">
         <v>1.64</v>
@@ -8411,7 +8411,7 @@
         <v>0.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT39" t="n">
         <v>0.5</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT40" t="n">
         <v>1.67</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU43" t="n">
         <v>1.98</v>
@@ -9429,7 +9429,7 @@
         <v>0.67</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -10850,7 +10850,7 @@
         <v>0.6</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU51" t="n">
         <v>1.52</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT52" t="n">
         <v>0.75</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -12065,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT57" t="n">
         <v>1.75</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT59" t="n">
         <v>1.33</v>
@@ -13286,7 +13286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU63" t="n">
         <v>1.52</v>
@@ -13489,7 +13489,7 @@
         <v>1.86</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU64" t="n">
         <v>1.95</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>2.71</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU67" t="n">
         <v>2.46</v>
@@ -14501,7 +14501,7 @@
         <v>0.83</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT69" t="n">
         <v>0.75</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU75" t="n">
         <v>1.79</v>
@@ -16331,7 +16331,7 @@
         <v>1.86</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU78" t="n">
         <v>1.75</v>
@@ -16531,7 +16531,7 @@
         <v>0.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT79" t="n">
         <v>0.5</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU81" t="n">
         <v>2.02</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT82" t="n">
         <v>0.83</v>
@@ -17346,7 +17346,7 @@
         <v>0.6</v>
       </c>
       <c r="AT83" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU83" t="n">
         <v>1.5</v>
@@ -17749,7 +17749,7 @@
         <v>0.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT85" t="n">
         <v>0.43</v>
@@ -19225,6 +19225,615 @@
       </c>
       <c r="BK92" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5280776</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45058.70833333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>14</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>7</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>11</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V93" t="n">
+        <v>5</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5280771</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45058.80208333334</v>
+      </c>
+      <c r="F94" t="n">
+        <v>14</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Hermanos Colmenares</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['15', '78']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['45', '45+2', '60']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>9</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>12</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5280772</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45058.90625</v>
+      </c>
+      <c r="F95" t="n">
+        <v>14</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Academia Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['9', '57', '90']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>7</v>
+      </c>
+      <c r="R95" t="n">
+        <v>8</v>
+      </c>
+      <c r="S95" t="n">
+        <v>15</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK95"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1309,7 +1309,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.17</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT7" t="n">
         <v>1.57</v>
@@ -2527,7 +2527,7 @@
         <v>0.83</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.86</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>2.29</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU18" t="n">
         <v>2.24</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT20" t="n">
         <v>0.71</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU23" t="n">
         <v>1.63</v>
@@ -5369,7 +5369,7 @@
         <v>1.86</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT30" t="n">
         <v>1.71</v>
@@ -7599,7 +7599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT35" t="n">
         <v>0.75</v>
@@ -8008,7 +8008,7 @@
         <v>1.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU37" t="n">
         <v>1.5</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>0.75</v>
@@ -8414,7 +8414,7 @@
         <v>1.14</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU39" t="n">
         <v>1.99</v>
@@ -8820,7 +8820,7 @@
         <v>0.83</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU41" t="n">
         <v>1.04</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.66</v>
@@ -10238,7 +10238,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT48" t="n">
         <v>0.43</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT49" t="n">
         <v>1.71</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>0.71</v>
@@ -11256,7 +11256,7 @@
         <v>1.86</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU53" t="n">
         <v>1.78</v>
@@ -11662,7 +11662,7 @@
         <v>2.71</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU55" t="n">
         <v>2.34</v>
@@ -11865,7 +11865,7 @@
         <v>0.83</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>1.1</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT60" t="n">
         <v>0.83</v>
@@ -12880,7 +12880,7 @@
         <v>0.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU61" t="n">
         <v>1.24</v>
@@ -13080,7 +13080,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT62" t="n">
         <v>1.57</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -13895,7 +13895,7 @@
         <v>1.14</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU66" t="n">
         <v>1.93</v>
@@ -14301,7 +14301,7 @@
         <v>2.17</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.6</v>
@@ -14704,10 +14704,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU70" t="n">
         <v>1.49</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT72" t="n">
         <v>0.83</v>
@@ -15922,7 +15922,7 @@
         <v>3</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT76" t="n">
         <v>1.75</v>
@@ -16534,7 +16534,7 @@
         <v>1.86</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU79" t="n">
         <v>1.43</v>
@@ -16937,7 +16937,7 @@
         <v>0.2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT81" t="n">
         <v>0.71</v>
@@ -17143,7 +17143,7 @@
         <v>1.86</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU82" t="n">
         <v>1.85</v>
@@ -17343,7 +17343,7 @@
         <v>1.8</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT83" t="n">
         <v>1.71</v>
@@ -17546,10 +17546,10 @@
         <v>1.4</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.59</v>
@@ -19834,6 +19834,818 @@
       </c>
       <c r="BK95" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5280770</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45059.70833333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>14</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>7</v>
+      </c>
+      <c r="S96" t="n">
+        <v>10</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5280773</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45059.80208333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>14</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Deportivo Táchira</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Angostura</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>9</v>
+      </c>
+      <c r="R97" t="n">
+        <v>8</v>
+      </c>
+      <c r="S97" t="n">
+        <v>17</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>6</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5280775</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45059.89583333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>14</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>6</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>8</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5280774</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45060.52083333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>14</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Estudiantes Mérida</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Mineros de Guayana</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['22', '42', '61']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>9</v>
+      </c>
+      <c r="R99" t="n">
+        <v>6</v>
+      </c>
+      <c r="S99" t="n">
+        <v>15</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK99"/>
+  <dimension ref="A1:BK104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT4" t="n">
         <v>0.43</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>0.83</v>
@@ -2121,7 +2121,7 @@
         <v>2.71</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT10" t="n">
         <v>0.86</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT12" t="n">
         <v>0.43</v>
@@ -3339,7 +3339,7 @@
         <v>1.44</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0.91</v>
@@ -3542,7 +3542,7 @@
         <v>1.86</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU17" t="n">
         <v>1.33</v>
@@ -4351,10 +4351,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>1.25</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>1.86</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU25" t="n">
         <v>1.24</v>
@@ -5775,7 +5775,7 @@
         <v>1.86</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU26" t="n">
         <v>1.6</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU27" t="n">
         <v>1.41</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT29" t="n">
         <v>2.29</v>
@@ -6993,7 +6993,7 @@
         <v>2.71</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU32" t="n">
         <v>2.74</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.57</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT34" t="n">
         <v>0.71</v>
@@ -7602,7 +7602,7 @@
         <v>2.14</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU35" t="n">
         <v>1.3</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT37" t="n">
         <v>0.86</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU38" t="n">
         <v>1.4</v>
@@ -8617,7 +8617,7 @@
         <v>1.86</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU40" t="n">
         <v>1.42</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT41" t="n">
         <v>0.83</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU46" t="n">
         <v>1.56</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT47" t="n">
         <v>1.57</v>
@@ -10647,7 +10647,7 @@
         <v>1.44</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU50" t="n">
         <v>1.47</v>
@@ -11053,7 +11053,7 @@
         <v>1.86</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU54" t="n">
         <v>1.68</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>1.14</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU57" t="n">
         <v>1.91</v>
@@ -12677,7 +12677,7 @@
         <v>2.14</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU60" t="n">
         <v>1.31</v>
@@ -13283,7 +13283,7 @@
         <v>3</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT63" t="n">
         <v>2.29</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT64" t="n">
         <v>1.71</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU65" t="n">
         <v>1.4</v>
@@ -14298,7 +14298,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>1.86</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU69" t="n">
         <v>1.83</v>
@@ -14907,7 +14907,7 @@
         <v>0.6</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT71" t="n">
         <v>0.43</v>
@@ -15113,7 +15113,7 @@
         <v>1.4</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU72" t="n">
         <v>1.84</v>
@@ -15313,7 +15313,7 @@
         <v>1.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT73" t="n">
         <v>1.57</v>
@@ -15925,7 +15925,7 @@
         <v>2.14</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16125,10 +16125,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU77" t="n">
         <v>1.51</v>
@@ -16328,7 +16328,7 @@
         <v>2.6</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT78" t="n">
         <v>2.29</v>
@@ -16737,7 +16737,7 @@
         <v>2.71</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU80" t="n">
         <v>2.33</v>
@@ -17952,7 +17952,7 @@
         <v>1.4</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT86" t="n">
         <v>1.33</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU87" t="n">
         <v>1.69</v>
@@ -18358,10 +18358,10 @@
         <v>0.86</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU88" t="n">
         <v>1.62</v>
@@ -18564,7 +18564,7 @@
         <v>0.67</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU89" t="n">
         <v>1.21</v>
@@ -18764,7 +18764,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT90" t="n">
         <v>1.57</v>
@@ -18967,10 +18967,10 @@
         <v>0.6</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU91" t="n">
         <v>1.66</v>
@@ -19173,7 +19173,7 @@
         <v>2.71</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU92" t="n">
         <v>2.34</v>
@@ -20646,6 +20646,1021 @@
       </c>
       <c r="BK99" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5280781</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45065.75</v>
+      </c>
+      <c r="F100" t="n">
+        <v>15</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>UCV</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['13', '18']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>8</v>
+      </c>
+      <c r="S100" t="n">
+        <v>10</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5280780</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45065.84375</v>
+      </c>
+      <c r="F101" t="n">
+        <v>15</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Angostura</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['21', '73']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5280777</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45066.70833333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>15</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Deportivo Táchira</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>6</v>
+      </c>
+      <c r="T102" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5280782</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45066.80208333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>15</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['6', '20']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>8</v>
+      </c>
+      <c r="R103" t="n">
+        <v>7</v>
+      </c>
+      <c r="S103" t="n">
+        <v>15</v>
+      </c>
+      <c r="T103" t="n">
+        <v>3</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5280778</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45066.89583333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>15</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>9</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>11</v>
+      </c>
+      <c r="T104" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V104" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK104"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.14</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.14</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.71</v>
@@ -4557,7 +4557,7 @@
         <v>1.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU20" t="n">
         <v>1.44</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT21" t="n">
         <v>1.71</v>
@@ -4963,7 +4963,7 @@
         <v>1.14</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU22" t="n">
         <v>1.57</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.57</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT31" t="n">
         <v>0.43</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU33" t="n">
         <v>1.53</v>
@@ -7399,7 +7399,7 @@
         <v>1.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU34" t="n">
         <v>1.64</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>2.29</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT44" t="n">
         <v>2.29</v>
@@ -10038,7 +10038,7 @@
         <v>1.63</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU47" t="n">
         <v>2.16</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU51" t="n">
         <v>1.52</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>0.83</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT61" t="n">
         <v>0.86</v>
@@ -13083,7 +13083,7 @@
         <v>1.44</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.48</v>
@@ -14098,7 +14098,7 @@
         <v>2.71</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU67" t="n">
         <v>2.46</v>
@@ -14501,7 +14501,7 @@
         <v>0.83</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>0.67</v>
@@ -15316,7 +15316,7 @@
         <v>1.14</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU73" t="n">
         <v>1.26</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT74" t="n">
         <v>1.33</v>
@@ -16940,7 +16940,7 @@
         <v>1.4</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU81" t="n">
         <v>2.02</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT82" t="n">
         <v>0.86</v>
@@ -18561,7 +18561,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT89" t="n">
         <v>1.57</v>
@@ -18767,7 +18767,7 @@
         <v>1.57</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU90" t="n">
         <v>1.65</v>
@@ -19373,7 +19373,7 @@
         <v>2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT93" t="n">
         <v>1.71</v>
@@ -19579,7 +19579,7 @@
         <v>1.86</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU94" t="n">
         <v>1.48</v>
@@ -21661,6 +21661,412 @@
       </c>
       <c r="BK104" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5280783</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45067.70833333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>15</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Estudiantes Mérida</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['28', '87']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>9</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>10</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V105" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5280779</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45067.80208333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>15</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Mineros de Guayana</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Hermanos Colmenares</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['74', '77']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['36', '81']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>8</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -21239,22 +21239,22 @@
         <v>0</v>
       </c>
       <c r="BF102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH102" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI102" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ102" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BK102" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -21319,13 +21319,13 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R103" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S103" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T103" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,21 @@
     <t>['74', '77']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['50', '90+1']</t>
+  </si>
+  <si>
+    <t>['56', '81', '90+2']</t>
+  </si>
+  <si>
+    <t>['54', '84']</t>
+  </si>
+  <si>
     <t>['8']</t>
   </si>
   <si>
@@ -631,9 +646,6 @@
     <t>['68']</t>
   </si>
   <si>
-    <t>['50']</t>
-  </si>
-  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -641,6 +653,18 @@
   </si>
   <si>
     <t>['36', '81']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['50', '88']</t>
+  </si>
+  <si>
+    <t>['45+3', '85']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT2">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1524,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT3">
         <v>0.75</v>
@@ -1718,7 +1742,7 @@
         <v>1.57</v>
       </c>
       <c r="AT4">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1909,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2097,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT6">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2288,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT7">
         <v>1.38</v>
@@ -2583,7 +2607,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2670,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT9">
         <v>1.57</v>
@@ -2774,7 +2798,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2864,7 +2888,7 @@
         <v>1.14</v>
       </c>
       <c r="AT10">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2965,7 +2989,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -3055,7 +3079,7 @@
         <v>1.29</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3156,7 +3180,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3246,7 +3270,7 @@
         <v>1.63</v>
       </c>
       <c r="AT12">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3347,7 +3371,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3538,7 +3562,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3625,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT14">
         <v>0.67</v>
@@ -4010,7 +4034,7 @@
         <v>2.71</v>
       </c>
       <c r="AT16">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>2.63</v>
@@ -4389,10 +4413,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT18">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU18">
         <v>2.24</v>
@@ -4493,7 +4517,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4684,7 +4708,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4771,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT20">
         <v>0.75</v>
@@ -4965,7 +4989,7 @@
         <v>0.71</v>
       </c>
       <c r="AT21">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5066,7 +5090,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5153,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT22">
         <v>1.38</v>
@@ -5344,10 +5368,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT23">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>1.63</v>
@@ -5538,7 +5562,7 @@
         <v>1.63</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5639,7 +5663,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5726,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT25">
         <v>0.71</v>
@@ -5830,7 +5854,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6021,7 +6045,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6212,7 +6236,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6299,10 +6323,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT28">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6403,7 +6427,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6594,7 +6618,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6681,10 +6705,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT30">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU30">
         <v>1.52</v>
@@ -6875,7 +6899,7 @@
         <v>0.71</v>
       </c>
       <c r="AT31">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU31">
         <v>1.02</v>
@@ -7167,7 +7191,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7636,7 +7660,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT35">
         <v>0.67</v>
@@ -7740,7 +7764,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7830,7 +7854,7 @@
         <v>1.57</v>
       </c>
       <c r="AT36">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU36">
         <v>1.49</v>
@@ -8021,7 +8045,7 @@
         <v>1.29</v>
       </c>
       <c r="AT37">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU37">
         <v>1.5</v>
@@ -8122,7 +8146,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8313,7 +8337,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8400,10 +8424,10 @@
         <v>0.33</v>
       </c>
       <c r="AS39">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT39">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU39">
         <v>1.99</v>
@@ -8591,7 +8615,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT40">
         <v>1.57</v>
@@ -8695,7 +8719,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8785,7 +8809,7 @@
         <v>1.14</v>
       </c>
       <c r="AT41">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU41">
         <v>1.04</v>
@@ -8886,7 +8910,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -8973,10 +8997,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU42">
         <v>1.66</v>
@@ -9077,7 +9101,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9268,7 +9292,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9459,7 +9483,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9546,10 +9570,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT45">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU45">
         <v>1.86</v>
@@ -9841,7 +9865,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10032,7 +10056,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10119,10 +10143,10 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT48">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU48">
         <v>1.3</v>
@@ -10223,7 +10247,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10310,10 +10334,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU49">
         <v>2.07</v>
@@ -10501,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT50">
         <v>1.29</v>
@@ -10796,7 +10820,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10883,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT52">
         <v>0.67</v>
@@ -11077,7 +11101,7 @@
         <v>2</v>
       </c>
       <c r="AT53">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU53">
         <v>1.78</v>
@@ -11178,7 +11202,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11459,7 +11483,7 @@
         <v>2.71</v>
       </c>
       <c r="AT55">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU55">
         <v>2.34</v>
@@ -11560,7 +11584,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -11650,7 +11674,7 @@
         <v>1.14</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU56">
         <v>1.1</v>
@@ -11751,7 +11775,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11838,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS57">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT57">
         <v>2</v>
@@ -12029,10 +12053,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT58">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU58">
         <v>1.81</v>
@@ -12220,10 +12244,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT59">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU59">
         <v>1.46</v>
@@ -12324,7 +12348,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12411,7 +12435,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT60">
         <v>0.71</v>
@@ -12515,7 +12539,7 @@
         <v>80</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12605,7 +12629,7 @@
         <v>0.71</v>
       </c>
       <c r="AT61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU61">
         <v>1.24</v>
@@ -12706,7 +12730,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12793,7 +12817,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT62">
         <v>1.38</v>
@@ -12897,7 +12921,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13088,7 +13112,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13178,7 +13202,7 @@
         <v>1.63</v>
       </c>
       <c r="AT64">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU64">
         <v>1.95</v>
@@ -13279,7 +13303,7 @@
         <v>80</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13557,10 +13581,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT66">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU66">
         <v>1.93</v>
@@ -13942,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU68">
         <v>1.6</v>
@@ -14234,7 +14258,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14321,10 +14345,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT70">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU70">
         <v>1.49</v>
@@ -14515,7 +14539,7 @@
         <v>1.29</v>
       </c>
       <c r="AT71">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -14616,7 +14640,7 @@
         <v>121</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>8</v>
@@ -14703,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
         <v>0.71</v>
@@ -14807,7 +14831,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15088,7 +15112,7 @@
         <v>0.71</v>
       </c>
       <c r="AT74">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU74">
         <v>1.2</v>
@@ -15189,7 +15213,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15276,10 +15300,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT75">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU75">
         <v>1.79</v>
@@ -15467,7 +15491,7 @@
         <v>3</v>
       </c>
       <c r="AS76">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT76">
         <v>2</v>
@@ -15571,7 +15595,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15762,7 +15786,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16040,10 +16064,10 @@
         <v>0.6</v>
       </c>
       <c r="AS79">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT79">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU79">
         <v>1.43</v>
@@ -16422,7 +16446,7 @@
         <v>0.2</v>
       </c>
       <c r="AS81">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT81">
         <v>0.75</v>
@@ -16526,7 +16550,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -16616,7 +16640,7 @@
         <v>2</v>
       </c>
       <c r="AT82">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU82">
         <v>1.85</v>
@@ -16807,7 +16831,7 @@
         <v>1</v>
       </c>
       <c r="AT83">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU83">
         <v>1.5</v>
@@ -16908,7 +16932,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -16995,10 +17019,10 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT84">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17186,10 +17210,10 @@
         <v>0.5</v>
       </c>
       <c r="AS85">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT85">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU85">
         <v>1.86</v>
@@ -17380,7 +17404,7 @@
         <v>1.14</v>
       </c>
       <c r="AT86">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU86">
         <v>1.26</v>
@@ -17481,7 +17505,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17672,7 +17696,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17863,7 +17887,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18054,7 +18078,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18245,7 +18269,7 @@
         <v>80</v>
       </c>
       <c r="P91" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18717,7 +18741,7 @@
         <v>2</v>
       </c>
       <c r="AT93">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU93">
         <v>2.01</v>
@@ -18818,7 +18842,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -18905,7 +18929,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT94">
         <v>0.75</v>
@@ -19009,7 +19033,7 @@
         <v>108</v>
       </c>
       <c r="P95" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19096,7 +19120,7 @@
         <v>2.17</v>
       </c>
       <c r="AS95">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT95">
         <v>2.29</v>
@@ -19287,10 +19311,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT96">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU96">
         <v>1.94</v>
@@ -19478,10 +19502,10 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT97">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU97">
         <v>1.34</v>
@@ -19582,7 +19606,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19669,10 +19693,10 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT98">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU98">
         <v>1.65</v>
@@ -19773,7 +19797,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -19863,7 +19887,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU99">
         <v>1.57</v>
@@ -20155,7 +20179,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20537,7 +20561,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20728,7 +20752,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -21110,7 +21134,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21252,6 +21276,1343 @@
       </c>
       <c r="BK106">
         <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5280790</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45099.66666666666</v>
+      </c>
+      <c r="F107">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>154</v>
+      </c>
+      <c r="P107" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q107">
+        <v>5</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>6</v>
+      </c>
+      <c r="T107">
+        <v>3.25</v>
+      </c>
+      <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
+        <v>3.4</v>
+      </c>
+      <c r="W107">
+        <v>1.46</v>
+      </c>
+      <c r="X107">
+        <v>2.6</v>
+      </c>
+      <c r="Y107">
+        <v>3.14</v>
+      </c>
+      <c r="Z107">
+        <v>1.33</v>
+      </c>
+      <c r="AA107">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB107">
+        <v>1.05</v>
+      </c>
+      <c r="AC107">
+        <v>5.71</v>
+      </c>
+      <c r="AD107">
+        <v>1.89</v>
+      </c>
+      <c r="AE107">
+        <v>2.46</v>
+      </c>
+      <c r="AF107">
+        <v>1.04</v>
+      </c>
+      <c r="AG107">
+        <v>7.8</v>
+      </c>
+      <c r="AH107">
+        <v>1.35</v>
+      </c>
+      <c r="AI107">
+        <v>2.84</v>
+      </c>
+      <c r="AJ107">
+        <v>2.2</v>
+      </c>
+      <c r="AK107">
+        <v>1.61</v>
+      </c>
+      <c r="AL107">
+        <v>1.83</v>
+      </c>
+      <c r="AM107">
+        <v>1.93</v>
+      </c>
+      <c r="AN107">
+        <v>1.33</v>
+      </c>
+      <c r="AO107">
+        <v>1.31</v>
+      </c>
+      <c r="AP107">
+        <v>1.5</v>
+      </c>
+      <c r="AQ107">
+        <v>1</v>
+      </c>
+      <c r="AR107">
+        <v>1.33</v>
+      </c>
+      <c r="AS107">
+        <v>1</v>
+      </c>
+      <c r="AT107">
+        <v>1.29</v>
+      </c>
+      <c r="AU107">
+        <v>1.66</v>
+      </c>
+      <c r="AV107">
+        <v>1.61</v>
+      </c>
+      <c r="AW107">
+        <v>3.27</v>
+      </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
+      <c r="AZ107">
+        <v>0</v>
+      </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>1.88</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>6</v>
+      </c>
+      <c r="BG107">
+        <v>4</v>
+      </c>
+      <c r="BH107">
+        <v>6</v>
+      </c>
+      <c r="BI107">
+        <v>2</v>
+      </c>
+      <c r="BJ107">
+        <v>12</v>
+      </c>
+      <c r="BK107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5280785</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45100.80208333334</v>
+      </c>
+      <c r="F108">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>69</v>
+      </c>
+      <c r="H108" t="s">
+        <v>74</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>80</v>
+      </c>
+      <c r="P108" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>5</v>
+      </c>
+      <c r="S108">
+        <v>6</v>
+      </c>
+      <c r="T108">
+        <v>2.63</v>
+      </c>
+      <c r="U108">
+        <v>1.91</v>
+      </c>
+      <c r="V108">
+        <v>4.75</v>
+      </c>
+      <c r="W108">
+        <v>1.56</v>
+      </c>
+      <c r="X108">
+        <v>2.3</v>
+      </c>
+      <c r="Y108">
+        <v>3.62</v>
+      </c>
+      <c r="Z108">
+        <v>1.26</v>
+      </c>
+      <c r="AA108">
+        <v>10</v>
+      </c>
+      <c r="AB108">
+        <v>1.03</v>
+      </c>
+      <c r="AC108">
+        <v>1.9</v>
+      </c>
+      <c r="AD108">
+        <v>2.9</v>
+      </c>
+      <c r="AE108">
+        <v>4</v>
+      </c>
+      <c r="AF108">
+        <v>1.07</v>
+      </c>
+      <c r="AG108">
+        <v>6.4</v>
+      </c>
+      <c r="AH108">
+        <v>1.49</v>
+      </c>
+      <c r="AI108">
+        <v>2.45</v>
+      </c>
+      <c r="AJ108">
+        <v>2.3</v>
+      </c>
+      <c r="AK108">
+        <v>1.56</v>
+      </c>
+      <c r="AL108">
+        <v>2.15</v>
+      </c>
+      <c r="AM108">
+        <v>1.63</v>
+      </c>
+      <c r="AN108">
+        <v>1.18</v>
+      </c>
+      <c r="AO108">
+        <v>1.28</v>
+      </c>
+      <c r="AP108">
+        <v>1.72</v>
+      </c>
+      <c r="AQ108">
+        <v>1.86</v>
+      </c>
+      <c r="AR108">
+        <v>1.71</v>
+      </c>
+      <c r="AS108">
+        <v>1.63</v>
+      </c>
+      <c r="AT108">
+        <v>1.88</v>
+      </c>
+      <c r="AU108">
+        <v>1.48</v>
+      </c>
+      <c r="AV108">
+        <v>1.11</v>
+      </c>
+      <c r="AW108">
+        <v>2.59</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>0</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>0</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>5</v>
+      </c>
+      <c r="BG108">
+        <v>4</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>6</v>
+      </c>
+      <c r="BJ108">
+        <v>5</v>
+      </c>
+      <c r="BK108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5280786</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45100.89583333334</v>
+      </c>
+      <c r="F109">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>72</v>
+      </c>
+      <c r="H109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>155</v>
+      </c>
+      <c r="P109" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>6</v>
+      </c>
+      <c r="S109">
+        <v>7</v>
+      </c>
+      <c r="T109">
+        <v>2.3</v>
+      </c>
+      <c r="U109">
+        <v>2.2</v>
+      </c>
+      <c r="V109">
+        <v>4.75</v>
+      </c>
+      <c r="W109">
+        <v>1.37</v>
+      </c>
+      <c r="X109">
+        <v>2.85</v>
+      </c>
+      <c r="Y109">
+        <v>2.73</v>
+      </c>
+      <c r="Z109">
+        <v>1.42</v>
+      </c>
+      <c r="AA109">
+        <v>7</v>
+      </c>
+      <c r="AB109">
+        <v>1.08</v>
+      </c>
+      <c r="AC109">
+        <v>1.65</v>
+      </c>
+      <c r="AD109">
+        <v>3.35</v>
+      </c>
+      <c r="AE109">
+        <v>4.4</v>
+      </c>
+      <c r="AF109">
+        <v>1.01</v>
+      </c>
+      <c r="AG109">
+        <v>10.25</v>
+      </c>
+      <c r="AH109">
+        <v>1.28</v>
+      </c>
+      <c r="AI109">
+        <v>3.5</v>
+      </c>
+      <c r="AJ109">
+        <v>1.9</v>
+      </c>
+      <c r="AK109">
+        <v>1.81</v>
+      </c>
+      <c r="AL109">
+        <v>1.84</v>
+      </c>
+      <c r="AM109">
+        <v>1.9</v>
+      </c>
+      <c r="AN109">
+        <v>1.12</v>
+      </c>
+      <c r="AO109">
+        <v>1.23</v>
+      </c>
+      <c r="AP109">
+        <v>2.3</v>
+      </c>
+      <c r="AQ109">
+        <v>1.5</v>
+      </c>
+      <c r="AR109">
+        <v>0.43</v>
+      </c>
+      <c r="AS109">
+        <v>1.29</v>
+      </c>
+      <c r="AT109">
+        <v>0.75</v>
+      </c>
+      <c r="AU109">
+        <v>1.72</v>
+      </c>
+      <c r="AV109">
+        <v>1.32</v>
+      </c>
+      <c r="AW109">
+        <v>3.04</v>
+      </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <v>0</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>1.85</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>4</v>
+      </c>
+      <c r="BG109">
+        <v>12</v>
+      </c>
+      <c r="BH109">
+        <v>2</v>
+      </c>
+      <c r="BI109">
+        <v>2</v>
+      </c>
+      <c r="BJ109">
+        <v>6</v>
+      </c>
+      <c r="BK109">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5280788</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45101.70833333334</v>
+      </c>
+      <c r="F110">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" t="s">
+        <v>73</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" t="s">
+        <v>80</v>
+      </c>
+      <c r="P110" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>8</v>
+      </c>
+      <c r="T110">
+        <v>2.88</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
+        <v>4</v>
+      </c>
+      <c r="W110">
+        <v>1.43</v>
+      </c>
+      <c r="X110">
+        <v>2.7</v>
+      </c>
+      <c r="Y110">
+        <v>2.99</v>
+      </c>
+      <c r="Z110">
+        <v>1.36</v>
+      </c>
+      <c r="AA110">
+        <v>7.8</v>
+      </c>
+      <c r="AB110">
+        <v>1.06</v>
+      </c>
+      <c r="AC110">
+        <v>2.08</v>
+      </c>
+      <c r="AD110">
+        <v>3.15</v>
+      </c>
+      <c r="AE110">
+        <v>3.05</v>
+      </c>
+      <c r="AF110">
+        <v>1.03</v>
+      </c>
+      <c r="AG110">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH110">
+        <v>1.32</v>
+      </c>
+      <c r="AI110">
+        <v>2.98</v>
+      </c>
+      <c r="AJ110">
+        <v>2</v>
+      </c>
+      <c r="AK110">
+        <v>1.76</v>
+      </c>
+      <c r="AL110">
+        <v>1.8</v>
+      </c>
+      <c r="AM110">
+        <v>1.86</v>
+      </c>
+      <c r="AN110">
+        <v>1.32</v>
+      </c>
+      <c r="AO110">
+        <v>1.3</v>
+      </c>
+      <c r="AP110">
+        <v>1.63</v>
+      </c>
+      <c r="AQ110">
+        <v>1.4</v>
+      </c>
+      <c r="AR110">
+        <v>0.43</v>
+      </c>
+      <c r="AS110">
+        <v>1.33</v>
+      </c>
+      <c r="AT110">
+        <v>0.5</v>
+      </c>
+      <c r="AU110">
+        <v>1.86</v>
+      </c>
+      <c r="AV110">
+        <v>1.32</v>
+      </c>
+      <c r="AW110">
+        <v>3.18</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>0</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>0</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>4</v>
+      </c>
+      <c r="BG110">
+        <v>2</v>
+      </c>
+      <c r="BH110">
+        <v>6</v>
+      </c>
+      <c r="BI110">
+        <v>2</v>
+      </c>
+      <c r="BJ110">
+        <v>10</v>
+      </c>
+      <c r="BK110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5280789</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45101.80208333334</v>
+      </c>
+      <c r="F111">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>65</v>
+      </c>
+      <c r="H111" t="s">
+        <v>75</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>156</v>
+      </c>
+      <c r="P111" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q111">
+        <v>6</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>8</v>
+      </c>
+      <c r="T111">
+        <v>2.63</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
+        <v>4.33</v>
+      </c>
+      <c r="W111">
+        <v>1.44</v>
+      </c>
+      <c r="X111">
+        <v>2.65</v>
+      </c>
+      <c r="Y111">
+        <v>2.97</v>
+      </c>
+      <c r="Z111">
+        <v>1.36</v>
+      </c>
+      <c r="AA111">
+        <v>7.6</v>
+      </c>
+      <c r="AB111">
+        <v>1.07</v>
+      </c>
+      <c r="AC111">
+        <v>1.95</v>
+      </c>
+      <c r="AD111">
+        <v>3.2</v>
+      </c>
+      <c r="AE111">
+        <v>3.35</v>
+      </c>
+      <c r="AF111">
+        <v>1.04</v>
+      </c>
+      <c r="AG111">
+        <v>7.9</v>
+      </c>
+      <c r="AH111">
+        <v>1.31</v>
+      </c>
+      <c r="AI111">
+        <v>3.04</v>
+      </c>
+      <c r="AJ111">
+        <v>2</v>
+      </c>
+      <c r="AK111">
+        <v>1.76</v>
+      </c>
+      <c r="AL111">
+        <v>1.78</v>
+      </c>
+      <c r="AM111">
+        <v>1.99</v>
+      </c>
+      <c r="AN111">
+        <v>1.28</v>
+      </c>
+      <c r="AO111">
+        <v>1.31</v>
+      </c>
+      <c r="AP111">
+        <v>1.66</v>
+      </c>
+      <c r="AQ111">
+        <v>1.44</v>
+      </c>
+      <c r="AR111">
+        <v>0.83</v>
+      </c>
+      <c r="AS111">
+        <v>1.6</v>
+      </c>
+      <c r="AT111">
+        <v>0.71</v>
+      </c>
+      <c r="AU111">
+        <v>1.66</v>
+      </c>
+      <c r="AV111">
+        <v>1.52</v>
+      </c>
+      <c r="AW111">
+        <v>3.18</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>0</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>8</v>
+      </c>
+      <c r="BG111">
+        <v>4</v>
+      </c>
+      <c r="BH111">
+        <v>3</v>
+      </c>
+      <c r="BI111">
+        <v>5</v>
+      </c>
+      <c r="BJ111">
+        <v>11</v>
+      </c>
+      <c r="BK111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5280787</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45101.89583333334</v>
+      </c>
+      <c r="F112">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>66</v>
+      </c>
+      <c r="H112" t="s">
+        <v>67</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112" t="s">
+        <v>157</v>
+      </c>
+      <c r="P112" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>8</v>
+      </c>
+      <c r="T112">
+        <v>2.5</v>
+      </c>
+      <c r="U112">
+        <v>2.1</v>
+      </c>
+      <c r="V112">
+        <v>4</v>
+      </c>
+      <c r="W112">
+        <v>1.42</v>
+      </c>
+      <c r="X112">
+        <v>2.65</v>
+      </c>
+      <c r="Y112">
+        <v>2.94</v>
+      </c>
+      <c r="Z112">
+        <v>1.37</v>
+      </c>
+      <c r="AA112">
+        <v>6.75</v>
+      </c>
+      <c r="AB112">
+        <v>1.07</v>
+      </c>
+      <c r="AC112">
+        <v>1.95</v>
+      </c>
+      <c r="AD112">
+        <v>3.2</v>
+      </c>
+      <c r="AE112">
+        <v>3.35</v>
+      </c>
+      <c r="AF112">
+        <v>1.03</v>
+      </c>
+      <c r="AG112">
+        <v>8.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.3</v>
+      </c>
+      <c r="AI112">
+        <v>3.08</v>
+      </c>
+      <c r="AJ112">
+        <v>2</v>
+      </c>
+      <c r="AK112">
+        <v>1.76</v>
+      </c>
+      <c r="AL112">
+        <v>1.8</v>
+      </c>
+      <c r="AM112">
+        <v>1.9</v>
+      </c>
+      <c r="AN112">
+        <v>1.25</v>
+      </c>
+      <c r="AO112">
+        <v>1.25</v>
+      </c>
+      <c r="AP112">
+        <v>1.63</v>
+      </c>
+      <c r="AQ112">
+        <v>1.14</v>
+      </c>
+      <c r="AR112">
+        <v>1</v>
+      </c>
+      <c r="AS112">
+        <v>1.38</v>
+      </c>
+      <c r="AT112">
+        <v>0.88</v>
+      </c>
+      <c r="AU112">
+        <v>1.77</v>
+      </c>
+      <c r="AV112">
+        <v>1.39</v>
+      </c>
+      <c r="AW112">
+        <v>3.16</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>0</v>
+      </c>
+      <c r="AZ112">
+        <v>0</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
+      <c r="BC112">
+        <v>0</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>9</v>
+      </c>
+      <c r="BG112">
+        <v>6</v>
+      </c>
+      <c r="BH112">
+        <v>10</v>
+      </c>
+      <c r="BI112">
+        <v>7</v>
+      </c>
+      <c r="BJ112">
+        <v>19</v>
+      </c>
+      <c r="BK112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5280784</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45102.70833333334</v>
+      </c>
+      <c r="F113">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>70</v>
+      </c>
+      <c r="H113" t="s">
+        <v>68</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>158</v>
+      </c>
+      <c r="P113" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q113">
+        <v>3</v>
+      </c>
+      <c r="R113">
+        <v>6</v>
+      </c>
+      <c r="S113">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>2.1</v>
+      </c>
+      <c r="V113">
+        <v>4.33</v>
+      </c>
+      <c r="W113">
+        <v>1.43</v>
+      </c>
+      <c r="X113">
+        <v>2.7</v>
+      </c>
+      <c r="Y113">
+        <v>2.99</v>
+      </c>
+      <c r="Z113">
+        <v>1.36</v>
+      </c>
+      <c r="AA113">
+        <v>7.7</v>
+      </c>
+      <c r="AB113">
+        <v>1.06</v>
+      </c>
+      <c r="AC113">
+        <v>2.05</v>
+      </c>
+      <c r="AD113">
+        <v>3.05</v>
+      </c>
+      <c r="AE113">
+        <v>3.6</v>
+      </c>
+      <c r="AF113">
+        <v>1.03</v>
+      </c>
+      <c r="AG113">
+        <v>8.5</v>
+      </c>
+      <c r="AH113">
+        <v>1.3</v>
+      </c>
+      <c r="AI113">
+        <v>3.08</v>
+      </c>
+      <c r="AJ113">
+        <v>2</v>
+      </c>
+      <c r="AK113">
+        <v>1.76</v>
+      </c>
+      <c r="AL113">
+        <v>1.83</v>
+      </c>
+      <c r="AM113">
+        <v>1.93</v>
+      </c>
+      <c r="AN113">
+        <v>1.25</v>
+      </c>
+      <c r="AO113">
+        <v>1.28</v>
+      </c>
+      <c r="AP113">
+        <v>1.79</v>
+      </c>
+      <c r="AQ113">
+        <v>2.14</v>
+      </c>
+      <c r="AR113">
+        <v>0.86</v>
+      </c>
+      <c r="AS113">
+        <v>2.25</v>
+      </c>
+      <c r="AT113">
+        <v>0.75</v>
+      </c>
+      <c r="AU113">
+        <v>1.4</v>
+      </c>
+      <c r="AV113">
+        <v>1.39</v>
+      </c>
+      <c r="AW113">
+        <v>2.79</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>0</v>
+      </c>
+      <c r="AZ113">
+        <v>0</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>0</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>5</v>
+      </c>
+      <c r="BG113">
+        <v>2</v>
+      </c>
+      <c r="BH113">
+        <v>4</v>
+      </c>
+      <c r="BI113">
+        <v>5</v>
+      </c>
+      <c r="BJ113">
+        <v>9</v>
+      </c>
+      <c r="BK113">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,18 @@
     <t>['54', '84']</t>
   </si>
   <si>
+    <t>['26', '42']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['2', '22']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['8']</t>
   </si>
   <si>
@@ -665,6 +677,15 @@
   </si>
   <si>
     <t>['45+3', '85']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['19', '62', '70']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1381,7 @@
         <v>1.6</v>
       </c>
       <c r="AT2">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1739,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT4">
         <v>0.75</v>
@@ -1930,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT5">
         <v>0.71</v>
@@ -2315,7 +2336,7 @@
         <v>2.25</v>
       </c>
       <c r="AT7">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2503,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2607,7 +2628,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2694,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2798,7 +2819,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2989,7 +3010,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -3076,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT11">
         <v>0.88</v>
@@ -3180,7 +3201,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3267,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT12">
         <v>0.75</v>
@@ -3371,7 +3392,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3562,7 +3583,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3652,7 +3673,7 @@
         <v>1.6</v>
       </c>
       <c r="AT14">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU14">
         <v>0.91</v>
@@ -3843,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4031,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT16">
         <v>0.5</v>
@@ -4222,10 +4243,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT17">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>1.33</v>
@@ -4517,7 +4538,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4604,10 +4625,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT19">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU19">
         <v>1.25</v>
@@ -4708,7 +4729,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4986,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT21">
         <v>1.88</v>
@@ -5090,7 +5111,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5180,7 +5201,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>1.57</v>
@@ -5368,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT23">
         <v>0.75</v>
@@ -5559,7 +5580,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT24">
         <v>0.88</v>
@@ -5663,7 +5684,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5753,7 +5774,7 @@
         <v>1.63</v>
       </c>
       <c r="AT25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU25">
         <v>1.24</v>
@@ -5854,7 +5875,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5944,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU26">
         <v>1.6</v>
@@ -6045,7 +6066,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6135,7 +6156,7 @@
         <v>1.14</v>
       </c>
       <c r="AT27">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6236,7 +6257,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6427,7 +6448,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6514,7 +6535,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
         <v>2.29</v>
@@ -6618,7 +6639,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6896,7 +6917,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT31">
         <v>0.5</v>
@@ -7087,10 +7108,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT32">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU32">
         <v>2.74</v>
@@ -7191,7 +7212,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7278,10 +7299,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT33">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>1.53</v>
@@ -7469,7 +7490,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT34">
         <v>0.75</v>
@@ -7663,7 +7684,7 @@
         <v>2.25</v>
       </c>
       <c r="AT35">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU35">
         <v>1.3</v>
@@ -7764,7 +7785,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7851,10 +7872,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT36">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU36">
         <v>1.49</v>
@@ -8042,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT37">
         <v>0.75</v>
@@ -8146,7 +8167,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8236,7 +8257,7 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU38">
         <v>1.4</v>
@@ -8337,7 +8358,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8618,7 +8639,7 @@
         <v>1.63</v>
       </c>
       <c r="AT40">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU40">
         <v>1.42</v>
@@ -8719,7 +8740,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8910,7 +8931,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -8997,7 +9018,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT42">
         <v>0.88</v>
@@ -9101,7 +9122,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9292,7 +9313,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9379,7 +9400,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT44">
         <v>2.29</v>
@@ -9483,7 +9504,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9570,10 +9591,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT45">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU45">
         <v>1.86</v>
@@ -9761,10 +9782,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT46">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU46">
         <v>1.56</v>
@@ -9865,7 +9886,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9952,10 +9973,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT47">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU47">
         <v>2.16</v>
@@ -10056,7 +10077,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10247,7 +10268,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10528,7 +10549,7 @@
         <v>1.6</v>
       </c>
       <c r="AT50">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU50">
         <v>1.47</v>
@@ -10820,7 +10841,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10910,7 +10931,7 @@
         <v>1.63</v>
       </c>
       <c r="AT52">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11202,7 +11223,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11289,10 +11310,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU54">
         <v>1.68</v>
@@ -11480,7 +11501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT55">
         <v>0.75</v>
@@ -11584,7 +11605,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -11775,7 +11796,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11865,7 +11886,7 @@
         <v>1.38</v>
       </c>
       <c r="AT57">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU57">
         <v>1.91</v>
@@ -12053,7 +12074,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
         <v>0.5</v>
@@ -12247,7 +12268,7 @@
         <v>1.63</v>
       </c>
       <c r="AT59">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU59">
         <v>1.46</v>
@@ -12348,7 +12369,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12438,7 +12459,7 @@
         <v>2.25</v>
       </c>
       <c r="AT60">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU60">
         <v>1.31</v>
@@ -12539,7 +12560,7 @@
         <v>80</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12626,7 +12647,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT61">
         <v>0.75</v>
@@ -12730,7 +12751,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12820,7 +12841,7 @@
         <v>1.6</v>
       </c>
       <c r="AT62">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU62">
         <v>1.48</v>
@@ -12921,7 +12942,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13008,7 +13029,7 @@
         <v>3</v>
       </c>
       <c r="AS63">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT63">
         <v>2.29</v>
@@ -13112,7 +13133,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13199,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT64">
         <v>1.88</v>
@@ -13303,7 +13324,7 @@
         <v>80</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13393,7 +13414,7 @@
         <v>1</v>
       </c>
       <c r="AT65">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU65">
         <v>1.4</v>
@@ -13772,7 +13793,7 @@
         <v>0.25</v>
       </c>
       <c r="AS67">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT67">
         <v>0.75</v>
@@ -13963,7 +13984,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT68">
         <v>0.88</v>
@@ -14157,7 +14178,7 @@
         <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU69">
         <v>1.83</v>
@@ -14258,7 +14279,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14536,7 +14557,7 @@
         <v>0.6</v>
       </c>
       <c r="AS71">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
         <v>0.5</v>
@@ -14640,7 +14661,7 @@
         <v>121</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>8</v>
@@ -14730,7 +14751,7 @@
         <v>1.33</v>
       </c>
       <c r="AT72">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU72">
         <v>1.84</v>
@@ -14831,7 +14852,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14921,7 +14942,7 @@
         <v>1.14</v>
       </c>
       <c r="AT73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU73">
         <v>1.26</v>
@@ -15109,10 +15130,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT74">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU74">
         <v>1.2</v>
@@ -15213,7 +15234,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15300,7 +15321,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT75">
         <v>1.88</v>
@@ -15494,7 +15515,7 @@
         <v>2.25</v>
       </c>
       <c r="AT76">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU76">
         <v>1.43</v>
@@ -15595,7 +15616,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15682,10 +15703,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT77">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU77">
         <v>1.51</v>
@@ -15786,7 +15807,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15873,7 +15894,7 @@
         <v>2.6</v>
       </c>
       <c r="AS78">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT78">
         <v>2.29</v>
@@ -16255,10 +16276,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU80">
         <v>2.33</v>
@@ -16550,7 +16571,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -16932,7 +16953,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17404,7 +17425,7 @@
         <v>1.14</v>
       </c>
       <c r="AT86">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU86">
         <v>1.26</v>
@@ -17505,7 +17526,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17592,10 +17613,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU87">
         <v>1.69</v>
@@ -17696,7 +17717,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17783,10 +17804,10 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT88">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -17887,7 +17908,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -17974,10 +17995,10 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT89">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU89">
         <v>1.21</v>
@@ -18078,7 +18099,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18165,10 +18186,10 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT90">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU90">
         <v>1.65</v>
@@ -18269,7 +18290,7 @@
         <v>80</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18356,10 +18377,10 @@
         <v>0.6</v>
       </c>
       <c r="AS91">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT91">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU91">
         <v>1.66</v>
@@ -18547,10 +18568,10 @@
         <v>2.33</v>
       </c>
       <c r="AS92">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT92">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU92">
         <v>2.34</v>
@@ -18842,7 +18863,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19033,7 +19054,7 @@
         <v>108</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19606,7 +19627,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20078,7 +20099,7 @@
         <v>1.14</v>
       </c>
       <c r="AT100">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU100">
         <v>1.14</v>
@@ -20179,7 +20200,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20266,10 +20287,10 @@
         <v>0.83</v>
       </c>
       <c r="AS101">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT101">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU101">
         <v>1.7</v>
@@ -20457,10 +20478,10 @@
         <v>1.67</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT102">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU102">
         <v>1.64</v>
@@ -20561,7 +20582,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20648,10 +20669,10 @@
         <v>1.75</v>
       </c>
       <c r="AS103">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT103">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU103">
         <v>1.58</v>
@@ -20752,7 +20773,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -20839,10 +20860,10 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT104">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU104">
         <v>1.62</v>
@@ -21033,7 +21054,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU105">
         <v>1.83</v>
@@ -21134,7 +21155,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21221,7 +21242,7 @@
         <v>0.71</v>
       </c>
       <c r="AS106">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT106">
         <v>0.75</v>
@@ -21325,7 +21346,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21415,7 +21436,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21516,7 +21537,7 @@
         <v>80</v>
       </c>
       <c r="P108" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21707,7 +21728,7 @@
         <v>155</v>
       </c>
       <c r="P109" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21794,7 +21815,7 @@
         <v>0.43</v>
       </c>
       <c r="AS109">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT109">
         <v>0.75</v>
@@ -22280,7 +22301,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22613,6 +22634,1343 @@
       </c>
       <c r="BK113">
         <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5280797</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45107.79166666666</v>
+      </c>
+      <c r="F114">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H114" t="s">
+        <v>77</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>121</v>
+      </c>
+      <c r="P114" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q114">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>9</v>
+      </c>
+      <c r="S114">
+        <v>12</v>
+      </c>
+      <c r="T114">
+        <v>3.25</v>
+      </c>
+      <c r="U114">
+        <v>1.83</v>
+      </c>
+      <c r="V114">
+        <v>3.75</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>2.71</v>
+      </c>
+      <c r="AD114">
+        <v>2.78</v>
+      </c>
+      <c r="AE114">
+        <v>2.43</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>1.55</v>
+      </c>
+      <c r="AI114">
+        <v>2.3</v>
+      </c>
+      <c r="AJ114">
+        <v>2.45</v>
+      </c>
+      <c r="AK114">
+        <v>1.5</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>0</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>0</v>
+      </c>
+      <c r="AQ114">
+        <v>1.29</v>
+      </c>
+      <c r="AR114">
+        <v>1.29</v>
+      </c>
+      <c r="AS114">
+        <v>1.25</v>
+      </c>
+      <c r="AT114">
+        <v>1.25</v>
+      </c>
+      <c r="AU114">
+        <v>1.68</v>
+      </c>
+      <c r="AV114">
+        <v>1.56</v>
+      </c>
+      <c r="AW114">
+        <v>3.24</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>0</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>0</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>3</v>
+      </c>
+      <c r="BG114">
+        <v>4</v>
+      </c>
+      <c r="BH114">
+        <v>3</v>
+      </c>
+      <c r="BI114">
+        <v>2</v>
+      </c>
+      <c r="BJ114">
+        <v>6</v>
+      </c>
+      <c r="BK114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5280794</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45107.88541666666</v>
+      </c>
+      <c r="F115">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>67</v>
+      </c>
+      <c r="H115" t="s">
+        <v>70</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>80</v>
+      </c>
+      <c r="P115" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>5</v>
+      </c>
+      <c r="T115">
+        <v>3.6</v>
+      </c>
+      <c r="U115">
+        <v>2.05</v>
+      </c>
+      <c r="V115">
+        <v>2.88</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>3.35</v>
+      </c>
+      <c r="AD115">
+        <v>3.2</v>
+      </c>
+      <c r="AE115">
+        <v>1.9</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
+        <v>2</v>
+      </c>
+      <c r="AK115">
+        <v>1.73</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>0</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>1.57</v>
+      </c>
+      <c r="AR115">
+        <v>1.57</v>
+      </c>
+      <c r="AS115">
+        <v>1.38</v>
+      </c>
+      <c r="AT115">
+        <v>1.75</v>
+      </c>
+      <c r="AU115">
+        <v>1.66</v>
+      </c>
+      <c r="AV115">
+        <v>1.44</v>
+      </c>
+      <c r="AW115">
+        <v>3.1</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>0</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>5</v>
+      </c>
+      <c r="BG115">
+        <v>2</v>
+      </c>
+      <c r="BH115">
+        <v>5</v>
+      </c>
+      <c r="BI115">
+        <v>4</v>
+      </c>
+      <c r="BJ115">
+        <v>10</v>
+      </c>
+      <c r="BK115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5280793</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45108.80208333334</v>
+      </c>
+      <c r="F116">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>71</v>
+      </c>
+      <c r="H116" t="s">
+        <v>66</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>159</v>
+      </c>
+      <c r="P116" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <v>8</v>
+      </c>
+      <c r="S116">
+        <v>12</v>
+      </c>
+      <c r="T116">
+        <v>2.38</v>
+      </c>
+      <c r="U116">
+        <v>2.1</v>
+      </c>
+      <c r="V116">
+        <v>4.75</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>1.9</v>
+      </c>
+      <c r="AD116">
+        <v>3.2</v>
+      </c>
+      <c r="AE116">
+        <v>3.49</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>0</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <v>1.96</v>
+      </c>
+      <c r="AK116">
+        <v>1.72</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+      <c r="AO116">
+        <v>0</v>
+      </c>
+      <c r="AP116">
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <v>2.71</v>
+      </c>
+      <c r="AR116">
+        <v>0.71</v>
+      </c>
+      <c r="AS116">
+        <v>2.75</v>
+      </c>
+      <c r="AT116">
+        <v>0.63</v>
+      </c>
+      <c r="AU116">
+        <v>2.2</v>
+      </c>
+      <c r="AV116">
+        <v>1.44</v>
+      </c>
+      <c r="AW116">
+        <v>3.64</v>
+      </c>
+      <c r="AX116">
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>0</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>0</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>7</v>
+      </c>
+      <c r="BG116">
+        <v>2</v>
+      </c>
+      <c r="BH116">
+        <v>8</v>
+      </c>
+      <c r="BI116">
+        <v>15</v>
+      </c>
+      <c r="BJ116">
+        <v>15</v>
+      </c>
+      <c r="BK116">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5280795</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45108.89583333334</v>
+      </c>
+      <c r="F117">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>160</v>
+      </c>
+      <c r="P117" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q117">
+        <v>4</v>
+      </c>
+      <c r="R117">
+        <v>6</v>
+      </c>
+      <c r="S117">
+        <v>10</v>
+      </c>
+      <c r="T117">
+        <v>3.4</v>
+      </c>
+      <c r="U117">
+        <v>2.1</v>
+      </c>
+      <c r="V117">
+        <v>2.88</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>2.6</v>
+      </c>
+      <c r="AD117">
+        <v>2.75</v>
+      </c>
+      <c r="AE117">
+        <v>2.65</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>2.1</v>
+      </c>
+      <c r="AK117">
+        <v>1.62</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>0</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
+        <v>0</v>
+      </c>
+      <c r="AQ117">
+        <v>0.71</v>
+      </c>
+      <c r="AR117">
+        <v>1.38</v>
+      </c>
+      <c r="AS117">
+        <v>0.75</v>
+      </c>
+      <c r="AT117">
+        <v>1.33</v>
+      </c>
+      <c r="AU117">
+        <v>1.38</v>
+      </c>
+      <c r="AV117">
+        <v>1.19</v>
+      </c>
+      <c r="AW117">
+        <v>2.57</v>
+      </c>
+      <c r="AX117">
+        <v>0</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
+      <c r="AZ117">
+        <v>0</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>0</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>5</v>
+      </c>
+      <c r="BG117">
+        <v>6</v>
+      </c>
+      <c r="BH117">
+        <v>7</v>
+      </c>
+      <c r="BI117">
+        <v>5</v>
+      </c>
+      <c r="BJ117">
+        <v>12</v>
+      </c>
+      <c r="BK117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5280796</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45109.70833333334</v>
+      </c>
+      <c r="F118">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" t="s">
+        <v>65</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>161</v>
+      </c>
+      <c r="P118" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118">
+        <v>9</v>
+      </c>
+      <c r="T118">
+        <v>3.6</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
+        <v>3</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>2.38</v>
+      </c>
+      <c r="AD118">
+        <v>2.74</v>
+      </c>
+      <c r="AE118">
+        <v>2.74</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>1.5</v>
+      </c>
+      <c r="AI118">
+        <v>2.45</v>
+      </c>
+      <c r="AJ118">
+        <v>2.38</v>
+      </c>
+      <c r="AK118">
+        <v>1.51</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AP118">
+        <v>0</v>
+      </c>
+      <c r="AQ118">
+        <v>2</v>
+      </c>
+      <c r="AR118">
+        <v>2</v>
+      </c>
+      <c r="AS118">
+        <v>2.13</v>
+      </c>
+      <c r="AT118">
+        <v>1.67</v>
+      </c>
+      <c r="AU118">
+        <v>1.51</v>
+      </c>
+      <c r="AV118">
+        <v>1.67</v>
+      </c>
+      <c r="AW118">
+        <v>3.18</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>0</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>0</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>4</v>
+      </c>
+      <c r="BG118">
+        <v>7</v>
+      </c>
+      <c r="BH118">
+        <v>3</v>
+      </c>
+      <c r="BI118">
+        <v>6</v>
+      </c>
+      <c r="BJ118">
+        <v>7</v>
+      </c>
+      <c r="BK118">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5280791</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45109.80208333334</v>
+      </c>
+      <c r="F119">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>75</v>
+      </c>
+      <c r="H119" t="s">
+        <v>79</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>162</v>
+      </c>
+      <c r="P119" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q119">
+        <v>3</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>2.3</v>
+      </c>
+      <c r="U119">
+        <v>2.1</v>
+      </c>
+      <c r="V119">
+        <v>4.75</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>1.95</v>
+      </c>
+      <c r="AD119">
+        <v>3.2</v>
+      </c>
+      <c r="AE119">
+        <v>3.05</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>1.98</v>
+      </c>
+      <c r="AK119">
+        <v>1.72</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>0</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AP119">
+        <v>0</v>
+      </c>
+      <c r="AQ119">
+        <v>1.63</v>
+      </c>
+      <c r="AR119">
+        <v>0.67</v>
+      </c>
+      <c r="AS119">
+        <v>1.44</v>
+      </c>
+      <c r="AT119">
+        <v>0.9</v>
+      </c>
+      <c r="AU119">
+        <v>1.59</v>
+      </c>
+      <c r="AV119">
+        <v>1.41</v>
+      </c>
+      <c r="AW119">
+        <v>3</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>0</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>2</v>
+      </c>
+      <c r="BG119">
+        <v>4</v>
+      </c>
+      <c r="BH119">
+        <v>5</v>
+      </c>
+      <c r="BI119">
+        <v>3</v>
+      </c>
+      <c r="BJ119">
+        <v>7</v>
+      </c>
+      <c r="BK119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5280792</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45109.89583333334</v>
+      </c>
+      <c r="F120">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" t="s">
+        <v>69</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>80</v>
+      </c>
+      <c r="P120" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>6</v>
+      </c>
+      <c r="T120">
+        <v>3.5</v>
+      </c>
+      <c r="U120">
+        <v>2.05</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>2.83</v>
+      </c>
+      <c r="AD120">
+        <v>3.15</v>
+      </c>
+      <c r="AE120">
+        <v>2.09</v>
+      </c>
+      <c r="AF120">
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>2</v>
+      </c>
+      <c r="AK120">
+        <v>1.73</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>0</v>
+      </c>
+      <c r="AQ120">
+        <v>1.29</v>
+      </c>
+      <c r="AR120">
+        <v>1.29</v>
+      </c>
+      <c r="AS120">
+        <v>1.13</v>
+      </c>
+      <c r="AT120">
+        <v>1.5</v>
+      </c>
+      <c r="AU120">
+        <v>1.63</v>
+      </c>
+      <c r="AV120">
+        <v>1.29</v>
+      </c>
+      <c r="AW120">
+        <v>2.92</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>0</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>3</v>
+      </c>
+      <c r="BG120">
+        <v>3</v>
+      </c>
+      <c r="BH120">
+        <v>5</v>
+      </c>
+      <c r="BI120">
+        <v>2</v>
+      </c>
+      <c r="BJ120">
+        <v>8</v>
+      </c>
+      <c r="BK120">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['24', '32', '51', '78', '90+1']</t>
   </si>
   <si>
     <t>['8']</t>
@@ -1047,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2628,7 +2631,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2819,7 +2822,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3010,7 +3013,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -3100,7 +3103,7 @@
         <v>1.25</v>
       </c>
       <c r="AT11">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3201,7 +3204,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3392,7 +3395,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3479,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT13">
         <v>2.29</v>
@@ -3583,7 +3586,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4538,7 +4541,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4729,7 +4732,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5111,7 +5114,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5583,7 +5586,7 @@
         <v>1.44</v>
       </c>
       <c r="AT24">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5684,7 +5687,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5875,7 +5878,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6066,7 +6069,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6257,7 +6260,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6448,7 +6451,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6639,7 +6642,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7212,7 +7215,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7785,7 +7788,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8167,7 +8170,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8254,7 +8257,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT38">
         <v>0.9</v>
@@ -8358,7 +8361,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8740,7 +8743,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8931,7 +8934,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9021,7 +9024,7 @@
         <v>1.13</v>
       </c>
       <c r="AT42">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU42">
         <v>1.66</v>
@@ -9122,7 +9125,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9313,7 +9316,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9504,7 +9507,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9886,7 +9889,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10077,7 +10080,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10268,7 +10271,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10737,7 +10740,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT51">
         <v>0.75</v>
@@ -10841,7 +10844,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11223,7 +11226,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11605,7 +11608,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -11695,7 +11698,7 @@
         <v>1.14</v>
       </c>
       <c r="AT56">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU56">
         <v>1.1</v>
@@ -11796,7 +11799,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12369,7 +12372,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12560,7 +12563,7 @@
         <v>80</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12751,7 +12754,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12942,7 +12945,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13133,7 +13136,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13324,7 +13327,7 @@
         <v>80</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13411,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT65">
         <v>1.5</v>
@@ -13987,7 +13990,7 @@
         <v>2.13</v>
       </c>
       <c r="AT68">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU68">
         <v>1.6</v>
@@ -14279,7 +14282,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14661,7 +14664,7 @@
         <v>121</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>8</v>
@@ -14852,7 +14855,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15234,7 +15237,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15616,7 +15619,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15807,7 +15810,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16571,7 +16574,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -16849,7 +16852,7 @@
         <v>1.8</v>
       </c>
       <c r="AS83">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT83">
         <v>1.88</v>
@@ -16953,7 +16956,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17043,7 +17046,7 @@
         <v>1.6</v>
       </c>
       <c r="AT84">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17526,7 +17529,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17717,7 +17720,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17908,7 +17911,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18099,7 +18102,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18290,7 +18293,7 @@
         <v>80</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18863,7 +18866,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19054,7 +19057,7 @@
         <v>108</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19526,7 +19529,7 @@
         <v>2.25</v>
       </c>
       <c r="AT97">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU97">
         <v>1.34</v>
@@ -19627,7 +19630,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19905,7 +19908,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT99">
         <v>0.75</v>
@@ -20200,7 +20203,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20582,7 +20585,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20773,7 +20776,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -21155,7 +21158,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21346,7 +21349,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21433,7 +21436,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT107">
         <v>1.25</v>
@@ -21537,7 +21540,7 @@
         <v>80</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21728,7 +21731,7 @@
         <v>155</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -22301,7 +22304,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22391,7 +22394,7 @@
         <v>1.38</v>
       </c>
       <c r="AT112">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU112">
         <v>1.77</v>
@@ -22683,7 +22686,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22874,7 +22877,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23638,16 +23641,16 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q119">
         <v>3</v>
       </c>
       <c r="R119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T119">
         <v>2.3</v>
@@ -23829,7 +23832,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -23971,6 +23974,197 @@
       </c>
       <c r="BK120">
         <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5280802</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45113.79166666666</v>
+      </c>
+      <c r="F121">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H121" t="s">
+        <v>67</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>5</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>5</v>
+      </c>
+      <c r="O121" t="s">
+        <v>163</v>
+      </c>
+      <c r="P121" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q121">
+        <v>5</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>6</v>
+      </c>
+      <c r="T121">
+        <v>2.88</v>
+      </c>
+      <c r="U121">
+        <v>2.1</v>
+      </c>
+      <c r="V121">
+        <v>3.5</v>
+      </c>
+      <c r="W121">
+        <v>1.39</v>
+      </c>
+      <c r="X121">
+        <v>2.7</v>
+      </c>
+      <c r="Y121">
+        <v>2.83</v>
+      </c>
+      <c r="Z121">
+        <v>1.35</v>
+      </c>
+      <c r="AA121">
+        <v>7.2</v>
+      </c>
+      <c r="AB121">
+        <v>1.07</v>
+      </c>
+      <c r="AC121">
+        <v>5.32</v>
+      </c>
+      <c r="AD121">
+        <v>3.71</v>
+      </c>
+      <c r="AE121">
+        <v>1.53</v>
+      </c>
+      <c r="AF121">
+        <v>1.06</v>
+      </c>
+      <c r="AG121">
+        <v>7.5</v>
+      </c>
+      <c r="AH121">
+        <v>1.33</v>
+      </c>
+      <c r="AI121">
+        <v>3</v>
+      </c>
+      <c r="AJ121">
+        <v>1.75</v>
+      </c>
+      <c r="AK121">
+        <v>2.05</v>
+      </c>
+      <c r="AL121">
+        <v>1.8</v>
+      </c>
+      <c r="AM121">
+        <v>1.91</v>
+      </c>
+      <c r="AN121">
+        <v>1.34</v>
+      </c>
+      <c r="AO121">
+        <v>1.31</v>
+      </c>
+      <c r="AP121">
+        <v>1.58</v>
+      </c>
+      <c r="AQ121">
+        <v>1</v>
+      </c>
+      <c r="AR121">
+        <v>0.88</v>
+      </c>
+      <c r="AS121">
+        <v>1.25</v>
+      </c>
+      <c r="AT121">
+        <v>0.78</v>
+      </c>
+      <c r="AU121">
+        <v>1.67</v>
+      </c>
+      <c r="AV121">
+        <v>1.42</v>
+      </c>
+      <c r="AW121">
+        <v>3.09</v>
+      </c>
+      <c r="AX121">
+        <v>2.03</v>
+      </c>
+      <c r="AY121">
+        <v>6</v>
+      </c>
+      <c r="AZ121">
+        <v>2.27</v>
+      </c>
+      <c r="BA121">
+        <v>1.39</v>
+      </c>
+      <c r="BB121">
+        <v>1.7</v>
+      </c>
+      <c r="BC121">
+        <v>2.2</v>
+      </c>
+      <c r="BD121">
+        <v>3</v>
+      </c>
+      <c r="BE121">
+        <v>4.2</v>
+      </c>
+      <c r="BF121">
+        <v>6</v>
+      </c>
+      <c r="BG121">
+        <v>3</v>
+      </c>
+      <c r="BH121">
+        <v>5</v>
+      </c>
+      <c r="BI121">
+        <v>6</v>
+      </c>
+      <c r="BJ121">
+        <v>11</v>
+      </c>
+      <c r="BK121">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,21 @@
     <t>['24', '32', '51', '78', '90+1']</t>
   </si>
   <si>
+    <t>['27', '45+1']</t>
+  </si>
+  <si>
+    <t>['5', '20', '25', '90+4']</t>
+  </si>
+  <si>
+    <t>['69', '71', '89']</t>
+  </si>
+  <si>
+    <t>['47', '57']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['8']</t>
   </si>
   <si>
@@ -689,6 +704,18 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['21', '33']</t>
+  </si>
+  <si>
+    <t>['26', '29']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT2">
         <v>1.25</v>
@@ -1572,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT3">
         <v>0.75</v>
@@ -1766,7 +1793,7 @@
         <v>1.38</v>
       </c>
       <c r="AT4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1957,7 +1984,7 @@
         <v>2.13</v>
       </c>
       <c r="AT5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2145,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2336,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT7">
         <v>1.33</v>
@@ -2631,7 +2658,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2822,7 +2849,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2912,7 +2939,7 @@
         <v>1.14</v>
       </c>
       <c r="AT10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3013,7 +3040,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -3204,7 +3231,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3294,7 +3321,7 @@
         <v>1.44</v>
       </c>
       <c r="AT12">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3395,7 +3422,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3485,7 +3512,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3586,7 +3613,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3673,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT14">
         <v>0.9</v>
@@ -3864,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT15">
         <v>0.63</v>
@@ -4058,7 +4085,7 @@
         <v>2.75</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU16">
         <v>2.63</v>
@@ -4437,10 +4464,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT18">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU18">
         <v>2.24</v>
@@ -4541,7 +4568,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4732,7 +4759,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4819,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT20">
         <v>0.75</v>
@@ -5013,7 +5040,7 @@
         <v>0.75</v>
       </c>
       <c r="AT21">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5114,7 +5141,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5201,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT22">
         <v>1.33</v>
@@ -5395,7 +5422,7 @@
         <v>1.13</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>1.63</v>
@@ -5687,7 +5714,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5774,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT25">
         <v>0.63</v>
@@ -5878,7 +5905,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5965,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT26">
         <v>1.75</v>
@@ -6069,7 +6096,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6260,7 +6287,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6347,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT28">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6451,7 +6478,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6541,7 +6568,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU29">
         <v>1.88</v>
@@ -6642,7 +6669,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6729,10 +6756,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT30">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU30">
         <v>1.52</v>
@@ -6923,7 +6950,7 @@
         <v>0.75</v>
       </c>
       <c r="AT31">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU31">
         <v>1.02</v>
@@ -7215,7 +7242,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7684,7 +7711,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT35">
         <v>0.9</v>
@@ -7788,7 +7815,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8069,7 +8096,7 @@
         <v>1.25</v>
       </c>
       <c r="AT37">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1.5</v>
@@ -8170,7 +8197,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8361,7 +8388,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8448,10 +8475,10 @@
         <v>0.33</v>
       </c>
       <c r="AS39">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT39">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU39">
         <v>1.99</v>
@@ -8639,7 +8666,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT40">
         <v>1.75</v>
@@ -8743,7 +8770,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8833,7 +8860,7 @@
         <v>1.14</v>
       </c>
       <c r="AT41">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU41">
         <v>1.04</v>
@@ -8934,7 +8961,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9125,7 +9152,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9212,10 +9239,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT43">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>1.98</v>
@@ -9316,7 +9343,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9406,7 +9433,7 @@
         <v>0.75</v>
       </c>
       <c r="AT44">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU44">
         <v>1.3</v>
@@ -9507,7 +9534,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9889,7 +9916,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10080,7 +10107,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10167,10 +10194,10 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU48">
         <v>1.3</v>
@@ -10271,7 +10298,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10358,10 +10385,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT49">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU49">
         <v>2.07</v>
@@ -10549,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT50">
         <v>1.5</v>
@@ -10844,7 +10871,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10931,7 +10958,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT52">
         <v>0.9</v>
@@ -11122,10 +11149,10 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT53">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU53">
         <v>1.78</v>
@@ -11226,7 +11253,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11507,7 +11534,7 @@
         <v>2.75</v>
       </c>
       <c r="AT55">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>2.34</v>
@@ -11608,7 +11635,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -11799,7 +11826,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11886,7 +11913,7 @@
         <v>3</v>
       </c>
       <c r="AS57">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT57">
         <v>1.67</v>
@@ -12080,7 +12107,7 @@
         <v>1.13</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU58">
         <v>1.81</v>
@@ -12268,7 +12295,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT59">
         <v>1.25</v>
@@ -12372,7 +12399,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12459,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT60">
         <v>0.63</v>
@@ -12563,7 +12590,7 @@
         <v>80</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12653,7 +12680,7 @@
         <v>0.75</v>
       </c>
       <c r="AT61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.24</v>
@@ -12754,7 +12781,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12841,7 +12868,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT62">
         <v>1.33</v>
@@ -12945,7 +12972,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13035,7 +13062,7 @@
         <v>1.38</v>
       </c>
       <c r="AT63">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU63">
         <v>1.52</v>
@@ -13136,7 +13163,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13226,7 +13253,7 @@
         <v>1.44</v>
       </c>
       <c r="AT64">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU64">
         <v>1.95</v>
@@ -13327,7 +13354,7 @@
         <v>80</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13605,10 +13632,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT66">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU66">
         <v>1.93</v>
@@ -14178,7 +14205,7 @@
         <v>0.83</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT69">
         <v>0.9</v>
@@ -14282,7 +14309,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14369,10 +14396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT70">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU70">
         <v>1.49</v>
@@ -14563,7 +14590,7 @@
         <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -14664,7 +14691,7 @@
         <v>121</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>8</v>
@@ -14751,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT72">
         <v>0.63</v>
@@ -14855,7 +14882,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15237,7 +15264,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15327,7 +15354,7 @@
         <v>1.13</v>
       </c>
       <c r="AT75">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU75">
         <v>1.79</v>
@@ -15515,7 +15542,7 @@
         <v>3</v>
       </c>
       <c r="AS76">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT76">
         <v>1.67</v>
@@ -15619,7 +15646,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15810,7 +15837,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15900,7 +15927,7 @@
         <v>1.44</v>
       </c>
       <c r="AT78">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU78">
         <v>1.75</v>
@@ -16088,10 +16115,10 @@
         <v>0.6</v>
       </c>
       <c r="AS79">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT79">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU79">
         <v>1.43</v>
@@ -16470,7 +16497,7 @@
         <v>0.2</v>
       </c>
       <c r="AS81">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT81">
         <v>0.75</v>
@@ -16574,7 +16601,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -16661,10 +16688,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT82">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.85</v>
@@ -16855,7 +16882,7 @@
         <v>1.25</v>
       </c>
       <c r="AT83">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU83">
         <v>1.5</v>
@@ -16956,7 +16983,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17043,7 +17070,7 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT84">
         <v>0.78</v>
@@ -17234,10 +17261,10 @@
         <v>0.5</v>
       </c>
       <c r="AS85">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT85">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU85">
         <v>1.86</v>
@@ -17529,7 +17556,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17720,7 +17747,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17911,7 +17938,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18102,7 +18129,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18293,7 +18320,7 @@
         <v>80</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18762,10 +18789,10 @@
         <v>2</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT93">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU93">
         <v>2.01</v>
@@ -18866,7 +18893,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -18953,7 +18980,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT94">
         <v>0.75</v>
@@ -19057,7 +19084,7 @@
         <v>108</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19144,10 +19171,10 @@
         <v>2.17</v>
       </c>
       <c r="AS95">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT95">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU95">
         <v>1.76</v>
@@ -19335,10 +19362,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT96">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU96">
         <v>1.94</v>
@@ -19526,7 +19553,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT97">
         <v>0.78</v>
@@ -19630,7 +19657,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19717,10 +19744,10 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT98">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.65</v>
@@ -19911,7 +19938,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU99">
         <v>1.57</v>
@@ -20203,7 +20230,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20585,7 +20612,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20776,7 +20803,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -21054,7 +21081,7 @@
         <v>1.57</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT105">
         <v>1.33</v>
@@ -21158,7 +21185,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21349,7 +21376,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21540,7 +21567,7 @@
         <v>80</v>
       </c>
       <c r="P108" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21627,10 +21654,10 @@
         <v>1.71</v>
       </c>
       <c r="AS108">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT108">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU108">
         <v>1.48</v>
@@ -21731,7 +21758,7 @@
         <v>155</v>
       </c>
       <c r="P109" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21821,7 +21848,7 @@
         <v>1.13</v>
       </c>
       <c r="AT109">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU109">
         <v>1.72</v>
@@ -22009,10 +22036,10 @@
         <v>0.43</v>
       </c>
       <c r="AS110">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT110">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU110">
         <v>1.86</v>
@@ -22200,10 +22227,10 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT111">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU111">
         <v>1.66</v>
@@ -22304,7 +22331,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22391,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT112">
         <v>0.78</v>
@@ -22582,10 +22609,10 @@
         <v>0.86</v>
       </c>
       <c r="AS113">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT113">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU113">
         <v>1.4</v>
@@ -22686,7 +22713,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22877,7 +22904,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23641,7 +23668,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23832,7 +23859,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24165,6 +24192,1152 @@
       </c>
       <c r="BK121">
         <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5280803</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45114.70833333334</v>
+      </c>
+      <c r="F122">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>164</v>
+      </c>
+      <c r="P122" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>2</v>
+      </c>
+      <c r="T122">
+        <v>2.1</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>7.5</v>
+      </c>
+      <c r="W122">
+        <v>1.45</v>
+      </c>
+      <c r="X122">
+        <v>2.55</v>
+      </c>
+      <c r="Y122">
+        <v>3.1</v>
+      </c>
+      <c r="Z122">
+        <v>1.32</v>
+      </c>
+      <c r="AA122">
+        <v>7.25</v>
+      </c>
+      <c r="AB122">
+        <v>1.06</v>
+      </c>
+      <c r="AC122">
+        <v>1.55</v>
+      </c>
+      <c r="AD122">
+        <v>3.4</v>
+      </c>
+      <c r="AE122">
+        <v>6.5</v>
+      </c>
+      <c r="AF122">
+        <v>1.07</v>
+      </c>
+      <c r="AG122">
+        <v>7</v>
+      </c>
+      <c r="AH122">
+        <v>1.5</v>
+      </c>
+      <c r="AI122">
+        <v>2.5</v>
+      </c>
+      <c r="AJ122">
+        <v>2.17</v>
+      </c>
+      <c r="AK122">
+        <v>1.61</v>
+      </c>
+      <c r="AL122">
+        <v>2.2</v>
+      </c>
+      <c r="AM122">
+        <v>1.6</v>
+      </c>
+      <c r="AN122">
+        <v>1.13</v>
+      </c>
+      <c r="AO122">
+        <v>1.27</v>
+      </c>
+      <c r="AP122">
+        <v>2.25</v>
+      </c>
+      <c r="AQ122">
+        <v>2</v>
+      </c>
+      <c r="AR122">
+        <v>0.5</v>
+      </c>
+      <c r="AS122">
+        <v>2.11</v>
+      </c>
+      <c r="AT122">
+        <v>0.44</v>
+      </c>
+      <c r="AU122">
+        <v>1.84</v>
+      </c>
+      <c r="AV122">
+        <v>1.25</v>
+      </c>
+      <c r="AW122">
+        <v>3.09</v>
+      </c>
+      <c r="AX122">
+        <v>1.57</v>
+      </c>
+      <c r="AY122">
+        <v>6.6</v>
+      </c>
+      <c r="AZ122">
+        <v>3.31</v>
+      </c>
+      <c r="BA122">
+        <v>1.36</v>
+      </c>
+      <c r="BB122">
+        <v>1.7</v>
+      </c>
+      <c r="BC122">
+        <v>2.2</v>
+      </c>
+      <c r="BD122">
+        <v>2.95</v>
+      </c>
+      <c r="BE122">
+        <v>4.2</v>
+      </c>
+      <c r="BF122">
+        <v>3</v>
+      </c>
+      <c r="BG122">
+        <v>4</v>
+      </c>
+      <c r="BH122">
+        <v>2</v>
+      </c>
+      <c r="BI122">
+        <v>2</v>
+      </c>
+      <c r="BJ122">
+        <v>5</v>
+      </c>
+      <c r="BK122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5280799</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45115.70833333334</v>
+      </c>
+      <c r="F123">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s">
+        <v>79</v>
+      </c>
+      <c r="H123" t="s">
+        <v>68</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>80</v>
+      </c>
+      <c r="P123" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q123">
+        <v>9</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>12</v>
+      </c>
+      <c r="T123">
+        <v>3.6</v>
+      </c>
+      <c r="U123">
+        <v>2.05</v>
+      </c>
+      <c r="V123">
+        <v>2.88</v>
+      </c>
+      <c r="W123">
+        <v>1.42</v>
+      </c>
+      <c r="X123">
+        <v>2.65</v>
+      </c>
+      <c r="Y123">
+        <v>2.9</v>
+      </c>
+      <c r="Z123">
+        <v>1.35</v>
+      </c>
+      <c r="AA123">
+        <v>6.75</v>
+      </c>
+      <c r="AB123">
+        <v>1.07</v>
+      </c>
+      <c r="AC123">
+        <v>2.91</v>
+      </c>
+      <c r="AD123">
+        <v>3.2</v>
+      </c>
+      <c r="AE123">
+        <v>2.07</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>10.25</v>
+      </c>
+      <c r="AH123">
+        <v>1.31</v>
+      </c>
+      <c r="AI123">
+        <v>3.18</v>
+      </c>
+      <c r="AJ123">
+        <v>2.04</v>
+      </c>
+      <c r="AK123">
+        <v>1.77</v>
+      </c>
+      <c r="AL123">
+        <v>1.78</v>
+      </c>
+      <c r="AM123">
+        <v>1.95</v>
+      </c>
+      <c r="AN123">
+        <v>1.58</v>
+      </c>
+      <c r="AO123">
+        <v>1.3</v>
+      </c>
+      <c r="AP123">
+        <v>1.35</v>
+      </c>
+      <c r="AQ123">
+        <v>1.33</v>
+      </c>
+      <c r="AR123">
+        <v>0.75</v>
+      </c>
+      <c r="AS123">
+        <v>1.14</v>
+      </c>
+      <c r="AT123">
+        <v>1</v>
+      </c>
+      <c r="AU123">
+        <v>1.75</v>
+      </c>
+      <c r="AV123">
+        <v>1.31</v>
+      </c>
+      <c r="AW123">
+        <v>3.06</v>
+      </c>
+      <c r="AX123">
+        <v>2.35</v>
+      </c>
+      <c r="AY123">
+        <v>6</v>
+      </c>
+      <c r="AZ123">
+        <v>1.97</v>
+      </c>
+      <c r="BA123">
+        <v>1.45</v>
+      </c>
+      <c r="BB123">
+        <v>1.8</v>
+      </c>
+      <c r="BC123">
+        <v>2.36</v>
+      </c>
+      <c r="BD123">
+        <v>3.2</v>
+      </c>
+      <c r="BE123">
+        <v>4.7</v>
+      </c>
+      <c r="BF123">
+        <v>5</v>
+      </c>
+      <c r="BG123">
+        <v>4</v>
+      </c>
+      <c r="BH123">
+        <v>13</v>
+      </c>
+      <c r="BI123">
+        <v>3</v>
+      </c>
+      <c r="BJ123">
+        <v>18</v>
+      </c>
+      <c r="BK123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5280801</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45115.80208333334</v>
+      </c>
+      <c r="F124">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s">
+        <v>70</v>
+      </c>
+      <c r="H124" t="s">
+        <v>78</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124" t="s">
+        <v>165</v>
+      </c>
+      <c r="P124" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q124">
+        <v>5</v>
+      </c>
+      <c r="R124">
+        <v>3</v>
+      </c>
+      <c r="S124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>1.95</v>
+      </c>
+      <c r="U124">
+        <v>2.2</v>
+      </c>
+      <c r="V124">
+        <v>7</v>
+      </c>
+      <c r="W124">
+        <v>1.35</v>
+      </c>
+      <c r="X124">
+        <v>2.9</v>
+      </c>
+      <c r="Y124">
+        <v>2.65</v>
+      </c>
+      <c r="Z124">
+        <v>1.42</v>
+      </c>
+      <c r="AA124">
+        <v>6</v>
+      </c>
+      <c r="AB124">
+        <v>1.09</v>
+      </c>
+      <c r="AC124">
+        <v>1.45</v>
+      </c>
+      <c r="AD124">
+        <v>3.5</v>
+      </c>
+      <c r="AE124">
+        <v>6</v>
+      </c>
+      <c r="AF124">
+        <v>1.04</v>
+      </c>
+      <c r="AG124">
+        <v>12.75</v>
+      </c>
+      <c r="AH124">
+        <v>1.25</v>
+      </c>
+      <c r="AI124">
+        <v>3.53</v>
+      </c>
+      <c r="AJ124">
+        <v>1.79</v>
+      </c>
+      <c r="AK124">
+        <v>1.81</v>
+      </c>
+      <c r="AL124">
+        <v>2</v>
+      </c>
+      <c r="AM124">
+        <v>1.72</v>
+      </c>
+      <c r="AN124">
+        <v>1.1</v>
+      </c>
+      <c r="AO124">
+        <v>1.18</v>
+      </c>
+      <c r="AP124">
+        <v>2.6</v>
+      </c>
+      <c r="AQ124">
+        <v>2.25</v>
+      </c>
+      <c r="AR124">
+        <v>0.75</v>
+      </c>
+      <c r="AS124">
+        <v>2.33</v>
+      </c>
+      <c r="AT124">
+        <v>0.67</v>
+      </c>
+      <c r="AU124">
+        <v>1.37</v>
+      </c>
+      <c r="AV124">
+        <v>1.46</v>
+      </c>
+      <c r="AW124">
+        <v>2.83</v>
+      </c>
+      <c r="AX124">
+        <v>1.27</v>
+      </c>
+      <c r="AY124">
+        <v>8.1</v>
+      </c>
+      <c r="AZ124">
+        <v>5.58</v>
+      </c>
+      <c r="BA124">
+        <v>1.25</v>
+      </c>
+      <c r="BB124">
+        <v>1.47</v>
+      </c>
+      <c r="BC124">
+        <v>1.8</v>
+      </c>
+      <c r="BD124">
+        <v>2.33</v>
+      </c>
+      <c r="BE124">
+        <v>3.1</v>
+      </c>
+      <c r="BF124">
+        <v>11</v>
+      </c>
+      <c r="BG124">
+        <v>3</v>
+      </c>
+      <c r="BH124">
+        <v>10</v>
+      </c>
+      <c r="BI124">
+        <v>2</v>
+      </c>
+      <c r="BJ124">
+        <v>21</v>
+      </c>
+      <c r="BK124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5280804</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45115.89583333334</v>
+      </c>
+      <c r="F125">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s">
+        <v>69</v>
+      </c>
+      <c r="H125" t="s">
+        <v>75</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>166</v>
+      </c>
+      <c r="P125" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q125">
+        <v>7</v>
+      </c>
+      <c r="R125">
+        <v>6</v>
+      </c>
+      <c r="S125">
+        <v>13</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
+        <v>3.75</v>
+      </c>
+      <c r="W125">
+        <v>1.45</v>
+      </c>
+      <c r="X125">
+        <v>2.55</v>
+      </c>
+      <c r="Y125">
+        <v>3.05</v>
+      </c>
+      <c r="Z125">
+        <v>1.32</v>
+      </c>
+      <c r="AA125">
+        <v>7</v>
+      </c>
+      <c r="AB125">
+        <v>1.07</v>
+      </c>
+      <c r="AC125">
+        <v>2.04</v>
+      </c>
+      <c r="AD125">
+        <v>3.08</v>
+      </c>
+      <c r="AE125">
+        <v>3.08</v>
+      </c>
+      <c r="AF125">
+        <v>1.06</v>
+      </c>
+      <c r="AG125">
+        <v>9.75</v>
+      </c>
+      <c r="AH125">
+        <v>1.34</v>
+      </c>
+      <c r="AI125">
+        <v>2.98</v>
+      </c>
+      <c r="AJ125">
+        <v>2.13</v>
+      </c>
+      <c r="AK125">
+        <v>1.71</v>
+      </c>
+      <c r="AL125">
+        <v>1.85</v>
+      </c>
+      <c r="AM125">
+        <v>1.85</v>
+      </c>
+      <c r="AN125">
+        <v>1.3</v>
+      </c>
+      <c r="AO125">
+        <v>1.28</v>
+      </c>
+      <c r="AP125">
+        <v>1.65</v>
+      </c>
+      <c r="AQ125">
+        <v>1.63</v>
+      </c>
+      <c r="AR125">
+        <v>0.71</v>
+      </c>
+      <c r="AS125">
+        <v>1.78</v>
+      </c>
+      <c r="AT125">
+        <v>0.63</v>
+      </c>
+      <c r="AU125">
+        <v>1.44</v>
+      </c>
+      <c r="AV125">
+        <v>1.46</v>
+      </c>
+      <c r="AW125">
+        <v>2.9</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>6.5</v>
+      </c>
+      <c r="AZ125">
+        <v>2.25</v>
+      </c>
+      <c r="BA125">
+        <v>1.15</v>
+      </c>
+      <c r="BB125">
+        <v>1.31</v>
+      </c>
+      <c r="BC125">
+        <v>1.54</v>
+      </c>
+      <c r="BD125">
+        <v>2</v>
+      </c>
+      <c r="BE125">
+        <v>2.45</v>
+      </c>
+      <c r="BF125">
+        <v>9</v>
+      </c>
+      <c r="BG125">
+        <v>4</v>
+      </c>
+      <c r="BH125">
+        <v>4</v>
+      </c>
+      <c r="BI125">
+        <v>7</v>
+      </c>
+      <c r="BJ125">
+        <v>13</v>
+      </c>
+      <c r="BK125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5280798</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45116.79166666666</v>
+      </c>
+      <c r="F126">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s">
+        <v>65</v>
+      </c>
+      <c r="H126" t="s">
+        <v>71</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>167</v>
+      </c>
+      <c r="P126" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>10</v>
+      </c>
+      <c r="S126">
+        <v>14</v>
+      </c>
+      <c r="T126">
+        <v>3.25</v>
+      </c>
+      <c r="U126">
+        <v>2.05</v>
+      </c>
+      <c r="V126">
+        <v>3.1</v>
+      </c>
+      <c r="W126">
+        <v>1.42</v>
+      </c>
+      <c r="X126">
+        <v>2.7</v>
+      </c>
+      <c r="Y126">
+        <v>2.85</v>
+      </c>
+      <c r="Z126">
+        <v>1.38</v>
+      </c>
+      <c r="AA126">
+        <v>6.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.08</v>
+      </c>
+      <c r="AC126">
+        <v>2.22</v>
+      </c>
+      <c r="AD126">
+        <v>2.9</v>
+      </c>
+      <c r="AE126">
+        <v>2.8</v>
+      </c>
+      <c r="AF126">
+        <v>1.05</v>
+      </c>
+      <c r="AG126">
+        <v>10.5</v>
+      </c>
+      <c r="AH126">
+        <v>1.3</v>
+      </c>
+      <c r="AI126">
+        <v>3.23</v>
+      </c>
+      <c r="AJ126">
+        <v>2.27</v>
+      </c>
+      <c r="AK126">
+        <v>1.56</v>
+      </c>
+      <c r="AL126">
+        <v>1.75</v>
+      </c>
+      <c r="AM126">
+        <v>2</v>
+      </c>
+      <c r="AN126">
+        <v>1.5</v>
+      </c>
+      <c r="AO126">
+        <v>1.3</v>
+      </c>
+      <c r="AP126">
+        <v>1.38</v>
+      </c>
+      <c r="AQ126">
+        <v>1.6</v>
+      </c>
+      <c r="AR126">
+        <v>2.29</v>
+      </c>
+      <c r="AS126">
+        <v>1.73</v>
+      </c>
+      <c r="AT126">
+        <v>2</v>
+      </c>
+      <c r="AU126">
+        <v>1.65</v>
+      </c>
+      <c r="AV126">
+        <v>1.57</v>
+      </c>
+      <c r="AW126">
+        <v>3.22</v>
+      </c>
+      <c r="AX126">
+        <v>2.18</v>
+      </c>
+      <c r="AY126">
+        <v>6.6</v>
+      </c>
+      <c r="AZ126">
+        <v>2.05</v>
+      </c>
+      <c r="BA126">
+        <v>1.14</v>
+      </c>
+      <c r="BB126">
+        <v>1.28</v>
+      </c>
+      <c r="BC126">
+        <v>1.51</v>
+      </c>
+      <c r="BD126">
+        <v>1.95</v>
+      </c>
+      <c r="BE126">
+        <v>2.37</v>
+      </c>
+      <c r="BF126">
+        <v>4</v>
+      </c>
+      <c r="BG126">
+        <v>3</v>
+      </c>
+      <c r="BH126">
+        <v>7</v>
+      </c>
+      <c r="BI126">
+        <v>2</v>
+      </c>
+      <c r="BJ126">
+        <v>11</v>
+      </c>
+      <c r="BK126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5280800</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45116.88541666666</v>
+      </c>
+      <c r="F127">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s">
+        <v>66</v>
+      </c>
+      <c r="H127" t="s">
+        <v>74</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>168</v>
+      </c>
+      <c r="P127" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>3</v>
+      </c>
+      <c r="S127">
+        <v>6</v>
+      </c>
+      <c r="T127">
+        <v>3.25</v>
+      </c>
+      <c r="U127">
+        <v>1.91</v>
+      </c>
+      <c r="V127">
+        <v>3.6</v>
+      </c>
+      <c r="W127">
+        <v>1.52</v>
+      </c>
+      <c r="X127">
+        <v>2.4</v>
+      </c>
+      <c r="Y127">
+        <v>3.3</v>
+      </c>
+      <c r="Z127">
+        <v>1.28</v>
+      </c>
+      <c r="AA127">
+        <v>7.75</v>
+      </c>
+      <c r="AB127">
+        <v>1.05</v>
+      </c>
+      <c r="AC127">
+        <v>2.55</v>
+      </c>
+      <c r="AD127">
+        <v>3</v>
+      </c>
+      <c r="AE127">
+        <v>2.75</v>
+      </c>
+      <c r="AF127">
+        <v>1.08</v>
+      </c>
+      <c r="AG127">
+        <v>8.1</v>
+      </c>
+      <c r="AH127">
+        <v>1.54</v>
+      </c>
+      <c r="AI127">
+        <v>2.33</v>
+      </c>
+      <c r="AJ127">
+        <v>2.4</v>
+      </c>
+      <c r="AK127">
+        <v>1.53</v>
+      </c>
+      <c r="AL127">
+        <v>1.95</v>
+      </c>
+      <c r="AM127">
+        <v>1.75</v>
+      </c>
+      <c r="AN127">
+        <v>1.38</v>
+      </c>
+      <c r="AO127">
+        <v>1.32</v>
+      </c>
+      <c r="AP127">
+        <v>1.48</v>
+      </c>
+      <c r="AQ127">
+        <v>1.38</v>
+      </c>
+      <c r="AR127">
+        <v>1.88</v>
+      </c>
+      <c r="AS127">
+        <v>1.22</v>
+      </c>
+      <c r="AT127">
+        <v>2</v>
+      </c>
+      <c r="AU127">
+        <v>1.86</v>
+      </c>
+      <c r="AV127">
+        <v>1.16</v>
+      </c>
+      <c r="AW127">
+        <v>3.02</v>
+      </c>
+      <c r="AX127">
+        <v>2.08</v>
+      </c>
+      <c r="AY127">
+        <v>6.1</v>
+      </c>
+      <c r="AZ127">
+        <v>2.2</v>
+      </c>
+      <c r="BA127">
+        <v>1.29</v>
+      </c>
+      <c r="BB127">
+        <v>1.53</v>
+      </c>
+      <c r="BC127">
+        <v>2</v>
+      </c>
+      <c r="BD127">
+        <v>2.5</v>
+      </c>
+      <c r="BE127">
+        <v>3.4</v>
+      </c>
+      <c r="BF127">
+        <v>2</v>
+      </c>
+      <c r="BG127">
+        <v>5</v>
+      </c>
+      <c r="BH127">
+        <v>13</v>
+      </c>
+      <c r="BI127">
+        <v>6</v>
+      </c>
+      <c r="BJ127">
+        <v>15</v>
+      </c>
+      <c r="BK127">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
